--- a/database/industries/lastic/parta/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/parta/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\parta\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664FDA8D-5985-43A2-BDA9-3C10F2C40F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A06FBD-6AA7-4401-8759-C1CDB2E0D028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1564,35 +1564,35 @@
       <c r="AR11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
+      <c r="AS11" s="11">
+        <v>1</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>-74</v>
       </c>
       <c r="AW11" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AZ11" s="11">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="BA11" s="11">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="BB11" s="11">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1690,68 +1690,68 @@
       <c r="AG12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>58</v>
+      <c r="AH12" s="13">
+        <v>986</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>1544</v>
       </c>
       <c r="AJ12" s="13">
-        <v>986</v>
+        <v>2068</v>
       </c>
       <c r="AK12" s="13">
-        <v>1544</v>
+        <v>1690</v>
       </c>
       <c r="AL12" s="13">
-        <v>2068</v>
+        <v>1202</v>
       </c>
       <c r="AM12" s="13">
-        <v>1690</v>
+        <v>1405</v>
       </c>
       <c r="AN12" s="13">
-        <v>1202</v>
+        <v>1429</v>
       </c>
       <c r="AO12" s="13">
-        <v>1405</v>
+        <v>1481</v>
       </c>
       <c r="AP12" s="13">
-        <v>1429</v>
+        <v>1623</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1481</v>
+        <v>1628</v>
       </c>
       <c r="AR12" s="13">
         <v>1623</v>
       </c>
       <c r="AS12" s="13">
-        <v>1628</v>
+        <v>1338</v>
       </c>
       <c r="AT12" s="13">
-        <v>1623</v>
+        <v>1193</v>
       </c>
       <c r="AU12" s="13">
-        <v>1338</v>
+        <v>1760</v>
       </c>
       <c r="AV12" s="13">
-        <v>1193</v>
+        <v>1743</v>
       </c>
       <c r="AW12" s="13">
-        <v>1760</v>
+        <v>1725</v>
       </c>
       <c r="AX12" s="13">
-        <v>1743</v>
+        <v>1474</v>
       </c>
       <c r="AY12" s="13">
-        <v>1725</v>
+        <v>1606</v>
       </c>
       <c r="AZ12" s="13">
-        <v>1474</v>
+        <v>1614</v>
       </c>
       <c r="BA12" s="13">
-        <v>1606</v>
+        <v>1453</v>
       </c>
       <c r="BB12" s="13">
-        <v>1614</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1849,68 +1849,68 @@
       <c r="AG13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>58</v>
+      <c r="AH13" s="11">
+        <v>160</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>357</v>
       </c>
       <c r="AJ13" s="11">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="AK13" s="11">
+        <v>262</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>235</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>299</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>319</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>309</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>307</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>306</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>300</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>261</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>246</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>363</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>367</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>349</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>320</v>
+      </c>
+      <c r="AY13" s="11">
         <v>357</v>
       </c>
-      <c r="AL13" s="11">
-        <v>276</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>262</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>235</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>299</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>319</v>
-      </c>
-      <c r="AQ13" s="11">
+      <c r="AZ13" s="11">
+        <v>344</v>
+      </c>
+      <c r="BA13" s="11">
         <v>309</v>
       </c>
-      <c r="AR13" s="11">
-        <v>307</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>306</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>300</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>261</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>246</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>363</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>367</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>349</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>320</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>357</v>
-      </c>
       <c r="BB13" s="11">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2008,68 +2008,68 @@
       <c r="AG14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI14" s="13" t="s">
-        <v>58</v>
+      <c r="AH14" s="13">
+        <v>177</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>148</v>
       </c>
       <c r="AJ14" s="13">
-        <v>177</v>
+        <v>586</v>
       </c>
       <c r="AK14" s="13">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="AL14" s="13">
-        <v>586</v>
+        <v>164</v>
       </c>
       <c r="AM14" s="13">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="AN14" s="13">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="AO14" s="13">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="AP14" s="13">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AQ14" s="13">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AR14" s="13">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AS14" s="13">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="AT14" s="13">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AU14" s="13">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="AV14" s="13">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="AW14" s="13">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AX14" s="13">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AY14" s="13">
         <v>335</v>
       </c>
       <c r="AZ14" s="13">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="BA14" s="13">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="BB14" s="13">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2167,68 +2167,68 @@
       <c r="AG15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>58</v>
+      <c r="AH15" s="11">
+        <v>62</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>138</v>
       </c>
       <c r="AJ15" s="11">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="AK15" s="11">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="AL15" s="11">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="AM15" s="11">
+        <v>184</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>182</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>180</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>151</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>140</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>122</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>198</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>198</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>188</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>182</v>
+      </c>
+      <c r="AY15" s="11">
         <v>187</v>
       </c>
-      <c r="AN15" s="11">
-        <v>125</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>184</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>191</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>182</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>180</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>151</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>140</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>122</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>198</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>198</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>188</v>
-      </c>
       <c r="AZ15" s="11">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BA15" s="11">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="BB15" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2325,67 +2325,67 @@
         <v>0</v>
       </c>
       <c r="AH16" s="15">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="AI16" s="15">
-        <v>0</v>
+        <v>2187</v>
       </c>
       <c r="AJ16" s="15">
-        <v>1385</v>
+        <v>3135</v>
       </c>
       <c r="AK16" s="15">
-        <v>2187</v>
+        <v>2493</v>
       </c>
       <c r="AL16" s="15">
-        <v>3135</v>
+        <v>1726</v>
       </c>
       <c r="AM16" s="15">
-        <v>2493</v>
+        <v>2201</v>
       </c>
       <c r="AN16" s="15">
-        <v>1726</v>
+        <v>2254</v>
       </c>
       <c r="AO16" s="15">
-        <v>2201</v>
+        <v>2237</v>
       </c>
       <c r="AP16" s="15">
-        <v>2254</v>
+        <v>2396</v>
       </c>
       <c r="AQ16" s="15">
-        <v>2237</v>
+        <v>2412</v>
       </c>
       <c r="AR16" s="15">
-        <v>2396</v>
+        <v>2360</v>
       </c>
       <c r="AS16" s="15">
-        <v>2412</v>
+        <v>1998</v>
       </c>
       <c r="AT16" s="15">
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="AU16" s="15">
-        <v>1998</v>
+        <v>2727</v>
       </c>
       <c r="AV16" s="15">
-        <v>1810</v>
+        <v>2561</v>
       </c>
       <c r="AW16" s="15">
-        <v>2727</v>
+        <v>2597</v>
       </c>
       <c r="AX16" s="15">
-        <v>2663</v>
+        <v>2288</v>
       </c>
       <c r="AY16" s="15">
-        <v>2597</v>
+        <v>2518</v>
       </c>
       <c r="AZ16" s="15">
-        <v>2288</v>
+        <v>2594</v>
       </c>
       <c r="BA16" s="15">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BB16" s="15">
-        <v>2594</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2579,11 +2579,11 @@
       <c r="AT18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV18" s="11" t="s">
-        <v>58</v>
+      <c r="AU18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="11">
+        <v>0</v>
       </c>
       <c r="AW18" s="11">
         <v>0</v>
@@ -2732,8 +2732,8 @@
       <c r="AR19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="13" t="s">
-        <v>58</v>
+      <c r="AS19" s="13">
+        <v>0</v>
       </c>
       <c r="AT19" s="13" t="s">
         <v>58</v>
@@ -2741,8 +2741,8 @@
       <c r="AU19" s="13">
         <v>0</v>
       </c>
-      <c r="AV19" s="13" t="s">
-        <v>58</v>
+      <c r="AV19" s="13">
+        <v>0</v>
       </c>
       <c r="AW19" s="13">
         <v>0</v>
@@ -2909,11 +2909,11 @@
       <c r="AX20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ20" s="11" t="s">
-        <v>58</v>
+      <c r="AY20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="11">
+        <v>0</v>
       </c>
       <c r="BA20" s="11">
         <v>0</v>
@@ -3059,11 +3059,11 @@
       <c r="AU21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW21" s="13" t="s">
-        <v>58</v>
+      <c r="AV21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="13">
+        <v>0</v>
       </c>
       <c r="AX21" s="13">
         <v>0</v>
@@ -3209,8 +3209,8 @@
       <c r="AR22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS22" s="11" t="s">
-        <v>58</v>
+      <c r="AS22" s="11">
+        <v>0</v>
       </c>
       <c r="AT22" s="11" t="s">
         <v>58</v>
@@ -3218,8 +3218,8 @@
       <c r="AU22" s="11">
         <v>0</v>
       </c>
-      <c r="AV22" s="11" t="s">
-        <v>58</v>
+      <c r="AV22" s="11">
+        <v>0</v>
       </c>
       <c r="AW22" s="11">
         <v>0</v>
@@ -3591,8 +3591,8 @@
       <c r="AU25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV25" s="11" t="s">
-        <v>58</v>
+      <c r="AV25" s="11">
+        <v>0</v>
       </c>
       <c r="AW25" s="11" t="s">
         <v>58</v>
@@ -3600,8 +3600,8 @@
       <c r="AX25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY25" s="11" t="s">
-        <v>58</v>
+      <c r="AY25" s="11">
+        <v>0</v>
       </c>
       <c r="AZ25" s="11" t="s">
         <v>58</v>
@@ -3706,11 +3706,11 @@
       <c r="AG26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI26" s="15" t="s">
-        <v>58</v>
+      <c r="AH26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="15">
+        <v>0</v>
       </c>
       <c r="AJ26" s="15">
         <v>0</v>
@@ -3864,67 +3864,67 @@
         <v>0</v>
       </c>
       <c r="AH27" s="17">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="AI27" s="17">
-        <v>0</v>
+        <v>2187</v>
       </c>
       <c r="AJ27" s="17">
-        <v>1385</v>
+        <v>3135</v>
       </c>
       <c r="AK27" s="17">
-        <v>2187</v>
+        <v>2493</v>
       </c>
       <c r="AL27" s="17">
-        <v>3135</v>
+        <v>1726</v>
       </c>
       <c r="AM27" s="17">
-        <v>2493</v>
+        <v>2201</v>
       </c>
       <c r="AN27" s="17">
-        <v>1726</v>
+        <v>2254</v>
       </c>
       <c r="AO27" s="17">
-        <v>2201</v>
+        <v>2237</v>
       </c>
       <c r="AP27" s="17">
-        <v>2254</v>
+        <v>2396</v>
       </c>
       <c r="AQ27" s="17">
-        <v>2237</v>
+        <v>2412</v>
       </c>
       <c r="AR27" s="17">
-        <v>2396</v>
+        <v>2360</v>
       </c>
       <c r="AS27" s="17">
-        <v>2412</v>
+        <v>1998</v>
       </c>
       <c r="AT27" s="17">
-        <v>2360</v>
+        <v>1810</v>
       </c>
       <c r="AU27" s="17">
-        <v>1998</v>
+        <v>2727</v>
       </c>
       <c r="AV27" s="17">
-        <v>1810</v>
+        <v>2561</v>
       </c>
       <c r="AW27" s="17">
-        <v>2727</v>
+        <v>2597</v>
       </c>
       <c r="AX27" s="17">
-        <v>2663</v>
+        <v>2288</v>
       </c>
       <c r="AY27" s="17">
-        <v>2597</v>
+        <v>2518</v>
       </c>
       <c r="AZ27" s="17">
-        <v>2288</v>
+        <v>2594</v>
       </c>
       <c r="BA27" s="17">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BB27" s="17">
-        <v>2594</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4489,35 +4489,35 @@
       <c r="AR34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS34" s="11" t="s">
-        <v>58</v>
+      <c r="AS34" s="11">
+        <v>1</v>
       </c>
       <c r="AT34" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="11">
         <v>1</v>
       </c>
-      <c r="AV34" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AW34" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="11">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="AZ34" s="11">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="BA34" s="11">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="BB34" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4615,68 +4615,68 @@
       <c r="AG35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI35" s="13" t="s">
-        <v>58</v>
+      <c r="AH35" s="13">
+        <v>1275</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>1255</v>
       </c>
       <c r="AJ35" s="13">
+        <v>1162</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>1133</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>1613</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>1435</v>
+      </c>
+      <c r="AN35" s="13">
         <v>1275</v>
       </c>
-      <c r="AK35" s="13">
-        <v>1255</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>1162</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>1133</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>1613</v>
-      </c>
       <c r="AO35" s="13">
-        <v>1435</v>
+        <v>1528</v>
       </c>
       <c r="AP35" s="13">
-        <v>1275</v>
+        <v>1908</v>
       </c>
       <c r="AQ35" s="13">
-        <v>1528</v>
+        <v>1678</v>
       </c>
       <c r="AR35" s="13">
-        <v>1908</v>
+        <v>1855</v>
       </c>
       <c r="AS35" s="13">
-        <v>1678</v>
+        <v>1725</v>
       </c>
       <c r="AT35" s="13">
-        <v>1855</v>
+        <v>1184</v>
       </c>
       <c r="AU35" s="13">
-        <v>1725</v>
+        <v>2133</v>
       </c>
       <c r="AV35" s="13">
-        <v>1184</v>
+        <v>1826</v>
       </c>
       <c r="AW35" s="13">
-        <v>2133</v>
+        <v>1868</v>
       </c>
       <c r="AX35" s="13">
-        <v>1826</v>
+        <v>1200</v>
       </c>
       <c r="AY35" s="13">
-        <v>1868</v>
+        <v>1457</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1200</v>
+        <v>1841</v>
       </c>
       <c r="BA35" s="13">
-        <v>1457</v>
+        <v>1642</v>
       </c>
       <c r="BB35" s="13">
-        <v>1841</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4774,68 +4774,68 @@
       <c r="AG36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI36" s="11" t="s">
-        <v>58</v>
+      <c r="AH36" s="11">
+        <v>220</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>297</v>
       </c>
       <c r="AJ36" s="11">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="AK36" s="11">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AL36" s="11">
-        <v>413</v>
+        <v>265</v>
       </c>
       <c r="AM36" s="11">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="AN36" s="11">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="AO36" s="11">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="AP36" s="11">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AQ36" s="11">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="AR36" s="11">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="AS36" s="11">
-        <v>460</v>
+        <v>274</v>
       </c>
       <c r="AT36" s="11">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="AU36" s="11">
+        <v>314</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>315</v>
+      </c>
+      <c r="AW36" s="11">
+        <v>235</v>
+      </c>
+      <c r="AX36" s="11">
+        <v>390</v>
+      </c>
+      <c r="AY36" s="11">
+        <v>426</v>
+      </c>
+      <c r="AZ36" s="11">
+        <v>273</v>
+      </c>
+      <c r="BA36" s="11">
+        <v>308</v>
+      </c>
+      <c r="BB36" s="11">
         <v>274</v>
-      </c>
-      <c r="AV36" s="11">
-        <v>252</v>
-      </c>
-      <c r="AW36" s="11">
-        <v>314</v>
-      </c>
-      <c r="AX36" s="11">
-        <v>315</v>
-      </c>
-      <c r="AY36" s="11">
-        <v>235</v>
-      </c>
-      <c r="AZ36" s="11">
-        <v>390</v>
-      </c>
-      <c r="BA36" s="11">
-        <v>426</v>
-      </c>
-      <c r="BB36" s="11">
-        <v>273</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4933,68 +4933,68 @@
       <c r="AG37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI37" s="13" t="s">
-        <v>58</v>
+      <c r="AH37" s="13">
+        <v>130</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>195</v>
       </c>
       <c r="AJ37" s="13">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AK37" s="13">
-        <v>195</v>
+        <v>344</v>
       </c>
       <c r="AL37" s="13">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="AM37" s="13">
-        <v>344</v>
+        <v>550</v>
       </c>
       <c r="AN37" s="13">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="AO37" s="13">
-        <v>550</v>
+        <v>416</v>
       </c>
       <c r="AP37" s="13">
-        <v>191</v>
+        <v>393</v>
       </c>
       <c r="AQ37" s="13">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="AR37" s="13">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="AS37" s="13">
-        <v>495</v>
+        <v>237</v>
       </c>
       <c r="AT37" s="13">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="AU37" s="13">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="AV37" s="13">
-        <v>238</v>
+        <v>507</v>
       </c>
       <c r="AW37" s="13">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="AX37" s="13">
-        <v>507</v>
+        <v>335</v>
       </c>
       <c r="AY37" s="13">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="AZ37" s="13">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="BA37" s="13">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="BB37" s="13">
-        <v>287</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5092,68 +5092,68 @@
       <c r="AG38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI38" s="11" t="s">
-        <v>58</v>
+      <c r="AH38" s="11">
+        <v>67</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>133</v>
       </c>
       <c r="AJ38" s="11">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AK38" s="11">
+        <v>105</v>
+      </c>
+      <c r="AL38" s="11">
+        <v>141</v>
+      </c>
+      <c r="AM38" s="11">
+        <v>215</v>
+      </c>
+      <c r="AN38" s="11">
         <v>133</v>
       </c>
-      <c r="AL38" s="11">
-        <v>110</v>
-      </c>
-      <c r="AM38" s="11">
-        <v>105</v>
-      </c>
-      <c r="AN38" s="11">
-        <v>141</v>
-      </c>
       <c r="AO38" s="11">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="AP38" s="11">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="AQ38" s="11">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="AR38" s="11">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="AS38" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AT38" s="11">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="AU38" s="11">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="AV38" s="11">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="AW38" s="11">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="AX38" s="11">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AY38" s="11">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="AZ38" s="11">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="BA38" s="11">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="BB38" s="11">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5250,67 +5250,67 @@
         <v>0</v>
       </c>
       <c r="AH39" s="15">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="AI39" s="15">
-        <v>0</v>
+        <v>1880</v>
       </c>
       <c r="AJ39" s="15">
-        <v>1692</v>
+        <v>2019</v>
       </c>
       <c r="AK39" s="15">
-        <v>1880</v>
+        <v>1886</v>
       </c>
       <c r="AL39" s="15">
-        <v>2019</v>
+        <v>2286</v>
       </c>
       <c r="AM39" s="15">
-        <v>1886</v>
+        <v>2446</v>
       </c>
       <c r="AN39" s="15">
-        <v>2286</v>
+        <v>1812</v>
       </c>
       <c r="AO39" s="15">
-        <v>2446</v>
+        <v>2509</v>
       </c>
       <c r="AP39" s="15">
-        <v>1812</v>
+        <v>2769</v>
       </c>
       <c r="AQ39" s="15">
-        <v>2509</v>
+        <v>2759</v>
       </c>
       <c r="AR39" s="15">
-        <v>2769</v>
+        <v>2705</v>
       </c>
       <c r="AS39" s="15">
-        <v>2759</v>
+        <v>2359</v>
       </c>
       <c r="AT39" s="15">
-        <v>2705</v>
+        <v>1856</v>
       </c>
       <c r="AU39" s="15">
-        <v>2359</v>
+        <v>2937</v>
       </c>
       <c r="AV39" s="15">
-        <v>1856</v>
+        <v>2805</v>
       </c>
       <c r="AW39" s="15">
-        <v>2937</v>
+        <v>2601</v>
       </c>
       <c r="AX39" s="15">
-        <v>2805</v>
+        <v>2090</v>
       </c>
       <c r="AY39" s="15">
-        <v>2601</v>
+        <v>2410</v>
       </c>
       <c r="AZ39" s="15">
-        <v>2090</v>
+        <v>2684</v>
       </c>
       <c r="BA39" s="15">
-        <v>2410</v>
+        <v>2662</v>
       </c>
       <c r="BB39" s="15">
-        <v>2684</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5504,29 +5504,29 @@
       <c r="AT41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV41" s="11" t="s">
-        <v>58</v>
+      <c r="AU41" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>2</v>
       </c>
       <c r="AW41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="11">
         <v>1</v>
       </c>
-      <c r="AX41" s="11">
-        <v>2</v>
-      </c>
       <c r="AY41" s="11">
         <v>0</v>
       </c>
       <c r="AZ41" s="11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BA41" s="11">
         <v>0</v>
       </c>
       <c r="BB41" s="11">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5657,35 +5657,35 @@
       <c r="AR42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS42" s="13" t="s">
-        <v>58</v>
+      <c r="AS42" s="13">
+        <v>1</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU42" s="13">
-        <v>1</v>
-      </c>
-      <c r="AV42" s="13" t="s">
-        <v>58</v>
+        <v>16</v>
+      </c>
+      <c r="AV42" s="13">
+        <v>128</v>
       </c>
       <c r="AW42" s="13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="13">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="AY42" s="13">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AZ42" s="13">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="BA42" s="13">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="BB42" s="13">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5834,17 +5834,17 @@
       <c r="AX43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ43" s="11" t="s">
-        <v>58</v>
+      <c r="AY43" s="11">
+        <v>68</v>
+      </c>
+      <c r="AZ43" s="11">
+        <v>0</v>
       </c>
       <c r="BA43" s="11">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="BB43" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5984,23 +5984,23 @@
       <c r="AU44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW44" s="13" t="s">
-        <v>58</v>
+      <c r="AV44" s="13">
+        <v>27</v>
+      </c>
+      <c r="AW44" s="13">
+        <v>0</v>
       </c>
       <c r="AX44" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AY44" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AZ44" s="13">
         <v>0</v>
       </c>
       <c r="BA44" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="13">
         <v>0</v>
@@ -6134,35 +6134,35 @@
       <c r="AR45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS45" s="11" t="s">
-        <v>58</v>
+      <c r="AS45" s="11">
+        <v>14</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU45" s="11">
-        <v>14</v>
-      </c>
-      <c r="AV45" s="11" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="AV45" s="11">
+        <v>37</v>
       </c>
       <c r="AW45" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="11">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AZ45" s="11">
         <v>0</v>
       </c>
       <c r="BA45" s="11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BB45" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6292,34 +6292,34 @@
         <v>0</v>
       </c>
       <c r="AS46" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT46" s="15">
         <v>0</v>
       </c>
       <c r="AU46" s="15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AV46" s="15">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AW46" s="15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="15">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="AY46" s="15">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="AZ46" s="15">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="BA46" s="15">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="BB46" s="15">
-        <v>35</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6516,8 +6516,8 @@
       <c r="AU48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV48" s="11" t="s">
-        <v>58</v>
+      <c r="AV48" s="11">
+        <v>0</v>
       </c>
       <c r="AW48" s="11" t="s">
         <v>58</v>
@@ -6525,8 +6525,8 @@
       <c r="AX48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY48" s="11" t="s">
-        <v>58</v>
+      <c r="AY48" s="11">
+        <v>0</v>
       </c>
       <c r="AZ48" s="11" t="s">
         <v>58</v>
@@ -6631,11 +6631,11 @@
       <c r="AG49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI49" s="15" t="s">
-        <v>58</v>
+      <c r="AH49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="15">
+        <v>0</v>
       </c>
       <c r="AJ49" s="15">
         <v>0</v>
@@ -6853,24 +6853,24 @@
       <c r="AI51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ51" s="11" t="s">
-        <v>58</v>
+      <c r="AJ51" s="11">
+        <v>-17</v>
       </c>
       <c r="AK51" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AL51" s="11">
-        <v>-17</v>
-      </c>
-      <c r="AM51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN51" s="11">
         <v>-49</v>
       </c>
-      <c r="AO51" s="11">
+      <c r="AM51" s="11">
         <v>-39</v>
       </c>
+      <c r="AN51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP51" s="11" t="s">
         <v>58</v>
       </c>
@@ -6889,26 +6889,26 @@
       <c r="AU51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW51" s="11" t="s">
-        <v>58</v>
+      <c r="AV51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="11">
+        <v>-16</v>
       </c>
       <c r="AX51" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY51" s="11">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BA51" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB51" s="11" t="s">
-        <v>58</v>
+        <v>-10</v>
+      </c>
+      <c r="BB51" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7015,59 +7015,59 @@
       <c r="AJ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK52" s="13" t="s">
-        <v>58</v>
+      <c r="AK52" s="13">
+        <v>-1</v>
       </c>
       <c r="AL52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM52" s="13">
+      <c r="AM52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="13">
         <v>-1</v>
       </c>
-      <c r="AN52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB52" s="13">
-        <v>-1</v>
+      <c r="BA52" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7165,26 +7165,26 @@
       <c r="AG53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI53" s="11" t="s">
-        <v>58</v>
+      <c r="AH53" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>-5</v>
       </c>
       <c r="AJ53" s="11">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="AK53" s="11">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="AL53" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>-10</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO53" s="11" t="s">
         <v>58</v>
@@ -7207,17 +7207,17 @@
       <c r="AU53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV53" s="11" t="s">
-        <v>58</v>
+      <c r="AV53" s="11">
+        <v>0</v>
       </c>
       <c r="AW53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX53" s="11">
-        <v>-4</v>
-      </c>
-      <c r="AY53" s="11" t="s">
-        <v>58</v>
+      <c r="AX53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY53" s="11">
+        <v>0</v>
       </c>
       <c r="AZ53" s="11" t="s">
         <v>58</v>
@@ -7336,53 +7336,53 @@
       <c r="AK54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL54" s="13" t="s">
-        <v>58</v>
+      <c r="AL54" s="13">
+        <v>-4</v>
       </c>
       <c r="AM54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN54" s="13">
+      <c r="AN54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP54" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AQ54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS54" s="13">
         <v>-4</v>
       </c>
-      <c r="AO54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR54" s="13">
+      <c r="AT54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AX54" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AY54" s="13">
         <v>-2</v>
       </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU54" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AV54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY54" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AZ54" s="13">
-        <v>-1</v>
-      </c>
-      <c r="BA54" s="13">
-        <v>-2</v>
+      <c r="AZ54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB54" s="13" t="s">
         <v>58</v>
@@ -7481,68 +7481,68 @@
       <c r="AG55" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI55" s="17" t="s">
-        <v>58</v>
+      <c r="AH55" s="17">
+        <v>-19</v>
+      </c>
+      <c r="AI55" s="17">
+        <v>-5</v>
       </c>
       <c r="AJ55" s="17">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="AK55" s="17">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="AL55" s="17">
-        <v>-18</v>
+        <v>-53</v>
       </c>
       <c r="AM55" s="17">
-        <v>-11</v>
+        <v>-39</v>
       </c>
       <c r="AN55" s="17">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="17">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ55" s="17">
         <v>0</v>
       </c>
       <c r="AR55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="17">
+        <v>-4</v>
+      </c>
+      <c r="AT55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="17">
+        <v>-4</v>
+      </c>
+      <c r="AW55" s="17">
+        <v>-20</v>
+      </c>
+      <c r="AX55" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AY55" s="17">
         <v>-2</v>
-      </c>
-      <c r="AS55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU55" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AV55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AX55" s="17">
-        <v>-4</v>
-      </c>
-      <c r="AY55" s="17">
-        <v>-20</v>
       </c>
       <c r="AZ55" s="17">
         <v>-1</v>
       </c>
       <c r="BA55" s="17">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="BB55" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7639,67 +7639,67 @@
         <v>0</v>
       </c>
       <c r="AH56" s="15">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="AI56" s="15">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="AJ56" s="15">
-        <v>1673</v>
+        <v>2001</v>
       </c>
       <c r="AK56" s="15">
         <v>1875</v>
       </c>
       <c r="AL56" s="15">
-        <v>2001</v>
+        <v>2233</v>
       </c>
       <c r="AM56" s="15">
-        <v>1875</v>
+        <v>2407</v>
       </c>
       <c r="AN56" s="15">
-        <v>2233</v>
+        <v>1812</v>
       </c>
       <c r="AO56" s="15">
-        <v>2407</v>
+        <v>2509</v>
       </c>
       <c r="AP56" s="15">
-        <v>1812</v>
+        <v>2767</v>
       </c>
       <c r="AQ56" s="15">
-        <v>2509</v>
+        <v>2759</v>
       </c>
       <c r="AR56" s="15">
-        <v>2767</v>
+        <v>2705</v>
       </c>
       <c r="AS56" s="15">
-        <v>2759</v>
+        <v>2370</v>
       </c>
       <c r="AT56" s="15">
-        <v>2705</v>
+        <v>1856</v>
       </c>
       <c r="AU56" s="15">
-        <v>2370</v>
+        <v>2961</v>
       </c>
       <c r="AV56" s="15">
-        <v>1856</v>
+        <v>2999</v>
       </c>
       <c r="AW56" s="15">
-        <v>2961</v>
+        <v>2581</v>
       </c>
       <c r="AX56" s="15">
-        <v>2995</v>
+        <v>2162</v>
       </c>
       <c r="AY56" s="15">
-        <v>2581</v>
+        <v>2623</v>
       </c>
       <c r="AZ56" s="15">
-        <v>2162</v>
+        <v>2718</v>
       </c>
       <c r="BA56" s="15">
-        <v>2622</v>
+        <v>2693</v>
       </c>
       <c r="BB56" s="15">
-        <v>2718</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8264,35 +8264,35 @@
       <c r="AR63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS63" s="11" t="s">
-        <v>58</v>
+      <c r="AS63" s="11">
+        <v>543</v>
       </c>
       <c r="AT63" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU63" s="11">
-        <v>543</v>
-      </c>
-      <c r="AV63" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV63" s="11">
+        <v>250</v>
       </c>
       <c r="AW63" s="11">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="AX63" s="11">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="11">
-        <v>1719</v>
+        <v>23418</v>
       </c>
       <c r="AZ63" s="11">
-        <v>0</v>
+        <v>97795</v>
       </c>
       <c r="BA63" s="11">
-        <v>23418</v>
+        <v>153420</v>
       </c>
       <c r="BB63" s="11">
-        <v>97795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8390,68 +8390,68 @@
       <c r="AG64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI64" s="13" t="s">
-        <v>58</v>
+      <c r="AH64" s="13">
+        <v>736688</v>
+      </c>
+      <c r="AI64" s="13">
+        <v>738597</v>
       </c>
       <c r="AJ64" s="13">
-        <v>736688</v>
+        <v>692457</v>
       </c>
       <c r="AK64" s="13">
-        <v>738597</v>
+        <v>655805</v>
       </c>
       <c r="AL64" s="13">
-        <v>692457</v>
+        <v>863957</v>
       </c>
       <c r="AM64" s="13">
-        <v>655805</v>
+        <v>797093</v>
       </c>
       <c r="AN64" s="13">
-        <v>863957</v>
+        <v>721306</v>
       </c>
       <c r="AO64" s="13">
-        <v>797093</v>
+        <v>857805</v>
       </c>
       <c r="AP64" s="13">
-        <v>721306</v>
+        <v>1070846</v>
       </c>
       <c r="AQ64" s="13">
-        <v>857805</v>
+        <v>946960</v>
       </c>
       <c r="AR64" s="13">
-        <v>1070846</v>
+        <v>1050579</v>
       </c>
       <c r="AS64" s="13">
-        <v>946960</v>
+        <v>951357</v>
       </c>
       <c r="AT64" s="13">
-        <v>1050579</v>
+        <v>651392</v>
       </c>
       <c r="AU64" s="13">
-        <v>951357</v>
+        <v>1148782</v>
       </c>
       <c r="AV64" s="13">
-        <v>651392</v>
+        <v>1138913</v>
       </c>
       <c r="AW64" s="13">
-        <v>1148782</v>
+        <v>1246293</v>
       </c>
       <c r="AX64" s="13">
-        <v>1138913</v>
+        <v>791494</v>
       </c>
       <c r="AY64" s="13">
-        <v>1246293</v>
+        <v>1298831</v>
       </c>
       <c r="AZ64" s="13">
-        <v>791494</v>
+        <v>1303795</v>
       </c>
       <c r="BA64" s="13">
-        <v>1298831</v>
+        <v>1164365</v>
       </c>
       <c r="BB64" s="13">
-        <v>1303795</v>
+        <v>1287157</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8549,68 +8549,68 @@
       <c r="AG65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI65" s="11" t="s">
-        <v>58</v>
+      <c r="AH65" s="11">
+        <v>129795</v>
+      </c>
+      <c r="AI65" s="11">
+        <v>223254</v>
       </c>
       <c r="AJ65" s="11">
-        <v>129795</v>
+        <v>262005</v>
       </c>
       <c r="AK65" s="11">
-        <v>223254</v>
+        <v>177138</v>
       </c>
       <c r="AL65" s="11">
-        <v>262005</v>
+        <v>160027</v>
       </c>
       <c r="AM65" s="11">
-        <v>177138</v>
+        <v>151050</v>
       </c>
       <c r="AN65" s="11">
-        <v>160027</v>
+        <v>139315</v>
       </c>
       <c r="AO65" s="11">
-        <v>151050</v>
+        <v>192822</v>
       </c>
       <c r="AP65" s="11">
-        <v>139315</v>
+        <v>162684</v>
       </c>
       <c r="AQ65" s="11">
-        <v>192822</v>
+        <v>393042</v>
       </c>
       <c r="AR65" s="11">
-        <v>162684</v>
+        <v>274605</v>
       </c>
       <c r="AS65" s="11">
-        <v>393042</v>
+        <v>207194</v>
       </c>
       <c r="AT65" s="11">
-        <v>274605</v>
+        <v>196161</v>
       </c>
       <c r="AU65" s="11">
-        <v>207194</v>
+        <v>237024</v>
       </c>
       <c r="AV65" s="11">
-        <v>196161</v>
+        <v>246749</v>
       </c>
       <c r="AW65" s="11">
-        <v>237024</v>
+        <v>186074</v>
       </c>
       <c r="AX65" s="11">
-        <v>246749</v>
+        <v>327156</v>
       </c>
       <c r="AY65" s="11">
-        <v>186074</v>
+        <v>389901</v>
       </c>
       <c r="AZ65" s="11">
-        <v>327156</v>
+        <v>239781</v>
       </c>
       <c r="BA65" s="11">
-        <v>389901</v>
+        <v>287601</v>
       </c>
       <c r="BB65" s="11">
-        <v>239781</v>
+        <v>252840</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8708,68 +8708,68 @@
       <c r="AG66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI66" s="13" t="s">
-        <v>58</v>
+      <c r="AH66" s="13">
+        <v>72515</v>
+      </c>
+      <c r="AI66" s="13">
+        <v>104015</v>
       </c>
       <c r="AJ66" s="13">
-        <v>72515</v>
+        <v>168122</v>
       </c>
       <c r="AK66" s="13">
-        <v>104015</v>
+        <v>172882</v>
       </c>
       <c r="AL66" s="13">
-        <v>168122</v>
+        <v>139314</v>
       </c>
       <c r="AM66" s="13">
-        <v>172882</v>
+        <v>304424</v>
       </c>
       <c r="AN66" s="13">
-        <v>139314</v>
+        <v>105707</v>
       </c>
       <c r="AO66" s="13">
-        <v>304424</v>
+        <v>230849</v>
       </c>
       <c r="AP66" s="13">
-        <v>105707</v>
+        <v>236408</v>
       </c>
       <c r="AQ66" s="13">
-        <v>230849</v>
+        <v>311207</v>
       </c>
       <c r="AR66" s="13">
-        <v>236408</v>
+        <v>230217</v>
       </c>
       <c r="AS66" s="13">
-        <v>311207</v>
+        <v>237837</v>
       </c>
       <c r="AT66" s="13">
-        <v>230217</v>
+        <v>166812</v>
       </c>
       <c r="AU66" s="13">
-        <v>237837</v>
+        <v>129350</v>
       </c>
       <c r="AV66" s="13">
-        <v>166812</v>
+        <v>363896</v>
       </c>
       <c r="AW66" s="13">
-        <v>129350</v>
+        <v>208671</v>
       </c>
       <c r="AX66" s="13">
-        <v>363896</v>
+        <v>246905</v>
       </c>
       <c r="AY66" s="13">
-        <v>208671</v>
+        <v>244862</v>
       </c>
       <c r="AZ66" s="13">
-        <v>246905</v>
+        <v>212591</v>
       </c>
       <c r="BA66" s="13">
-        <v>244862</v>
+        <v>260553</v>
       </c>
       <c r="BB66" s="13">
-        <v>212591</v>
+        <v>184864</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8867,68 +8867,68 @@
       <c r="AG67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI67" s="11" t="s">
-        <v>58</v>
+      <c r="AH67" s="11">
+        <v>31449</v>
+      </c>
+      <c r="AI67" s="11">
+        <v>63430</v>
       </c>
       <c r="AJ67" s="11">
-        <v>31449</v>
+        <v>48907</v>
       </c>
       <c r="AK67" s="11">
-        <v>63430</v>
+        <v>48217</v>
       </c>
       <c r="AL67" s="11">
-        <v>48907</v>
+        <v>66774</v>
       </c>
       <c r="AM67" s="11">
-        <v>48217</v>
+        <v>103732</v>
       </c>
       <c r="AN67" s="11">
-        <v>66774</v>
+        <v>63874</v>
       </c>
       <c r="AO67" s="11">
-        <v>103732</v>
+        <v>126152</v>
       </c>
       <c r="AP67" s="11">
-        <v>63874</v>
+        <v>108545</v>
       </c>
       <c r="AQ67" s="11">
-        <v>126152</v>
+        <v>60838</v>
       </c>
       <c r="AR67" s="11">
-        <v>108545</v>
+        <v>64510</v>
       </c>
       <c r="AS67" s="11">
-        <v>60838</v>
+        <v>60816</v>
       </c>
       <c r="AT67" s="11">
-        <v>64510</v>
+        <v>89761</v>
       </c>
       <c r="AU67" s="11">
-        <v>60816</v>
+        <v>143390</v>
       </c>
       <c r="AV67" s="11">
-        <v>89761</v>
+        <v>75774</v>
       </c>
       <c r="AW67" s="11">
-        <v>143390</v>
+        <v>107721</v>
       </c>
       <c r="AX67" s="11">
-        <v>75774</v>
+        <v>125885</v>
       </c>
       <c r="AY67" s="11">
-        <v>107721</v>
+        <v>100357</v>
       </c>
       <c r="AZ67" s="11">
-        <v>125885</v>
+        <v>93364</v>
       </c>
       <c r="BA67" s="11">
-        <v>100357</v>
+        <v>139491</v>
       </c>
       <c r="BB67" s="11">
-        <v>93364</v>
+        <v>143647</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9025,67 +9025,67 @@
         <v>0</v>
       </c>
       <c r="AH68" s="15">
-        <v>0</v>
+        <v>970447</v>
       </c>
       <c r="AI68" s="15">
-        <v>0</v>
+        <v>1129296</v>
       </c>
       <c r="AJ68" s="15">
-        <v>970447</v>
+        <v>1171491</v>
       </c>
       <c r="AK68" s="15">
-        <v>1129296</v>
+        <v>1054042</v>
       </c>
       <c r="AL68" s="15">
-        <v>1171491</v>
+        <v>1230072</v>
       </c>
       <c r="AM68" s="15">
-        <v>1054042</v>
+        <v>1356299</v>
       </c>
       <c r="AN68" s="15">
-        <v>1230072</v>
+        <v>1030202</v>
       </c>
       <c r="AO68" s="15">
-        <v>1356299</v>
+        <v>1407628</v>
       </c>
       <c r="AP68" s="15">
-        <v>1030202</v>
+        <v>1578483</v>
       </c>
       <c r="AQ68" s="15">
-        <v>1407628</v>
+        <v>1712047</v>
       </c>
       <c r="AR68" s="15">
-        <v>1578483</v>
+        <v>1619911</v>
       </c>
       <c r="AS68" s="15">
-        <v>1712047</v>
+        <v>1457747</v>
       </c>
       <c r="AT68" s="15">
-        <v>1619911</v>
+        <v>1104126</v>
       </c>
       <c r="AU68" s="15">
-        <v>1457747</v>
+        <v>1658546</v>
       </c>
       <c r="AV68" s="15">
-        <v>1104126</v>
+        <v>1825582</v>
       </c>
       <c r="AW68" s="15">
-        <v>1658546</v>
+        <v>1750478</v>
       </c>
       <c r="AX68" s="15">
-        <v>1825582</v>
+        <v>1491440</v>
       </c>
       <c r="AY68" s="15">
-        <v>1750478</v>
+        <v>2057369</v>
       </c>
       <c r="AZ68" s="15">
-        <v>1491440</v>
+        <v>1947326</v>
       </c>
       <c r="BA68" s="15">
-        <v>2057369</v>
+        <v>2005430</v>
       </c>
       <c r="BB68" s="15">
-        <v>1947326</v>
+        <v>1868508</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9279,29 +9279,29 @@
       <c r="AT70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV70" s="11" t="s">
-        <v>58</v>
+      <c r="AU70" s="11">
+        <v>732</v>
+      </c>
+      <c r="AV70" s="11">
+        <v>1113</v>
       </c>
       <c r="AW70" s="11">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="11">
-        <v>1113</v>
+        <v>953</v>
       </c>
       <c r="AY70" s="11">
         <v>0</v>
       </c>
       <c r="AZ70" s="11">
-        <v>953</v>
+        <v>8865</v>
       </c>
       <c r="BA70" s="11">
         <v>0</v>
       </c>
       <c r="BB70" s="11">
-        <v>8865</v>
+        <v>53662</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9432,35 +9432,35 @@
       <c r="AR71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS71" s="13" t="s">
-        <v>58</v>
+      <c r="AS71" s="13">
+        <v>738</v>
       </c>
       <c r="AT71" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU71" s="13">
-        <v>738</v>
-      </c>
-      <c r="AV71" s="13" t="s">
-        <v>58</v>
+        <v>9850</v>
+      </c>
+      <c r="AV71" s="13">
+        <v>76662</v>
       </c>
       <c r="AW71" s="13">
-        <v>9850</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="13">
-        <v>76662</v>
+        <v>48723</v>
       </c>
       <c r="AY71" s="13">
-        <v>0</v>
+        <v>77810</v>
       </c>
       <c r="AZ71" s="13">
-        <v>48723</v>
+        <v>18360</v>
       </c>
       <c r="BA71" s="13">
-        <v>77810</v>
+        <v>17330</v>
       </c>
       <c r="BB71" s="13">
-        <v>18360</v>
+        <v>62351</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9609,17 +9609,17 @@
       <c r="AX72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ72" s="11" t="s">
-        <v>58</v>
+      <c r="AY72" s="11">
+        <v>48283</v>
+      </c>
+      <c r="AZ72" s="11">
+        <v>0</v>
       </c>
       <c r="BA72" s="11">
-        <v>48283</v>
+        <v>12944</v>
       </c>
       <c r="BB72" s="11">
-        <v>0</v>
+        <v>22745</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9759,23 +9759,23 @@
       <c r="AU73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW73" s="13" t="s">
-        <v>58</v>
+      <c r="AV73" s="13">
+        <v>17720</v>
+      </c>
+      <c r="AW73" s="13">
+        <v>0</v>
       </c>
       <c r="AX73" s="13">
-        <v>17720</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="13">
-        <v>0</v>
+        <v>4635</v>
       </c>
       <c r="AZ73" s="13">
         <v>0</v>
       </c>
       <c r="BA73" s="13">
-        <v>4635</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="13">
         <v>0</v>
@@ -9909,35 +9909,35 @@
       <c r="AR74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS74" s="11" t="s">
-        <v>58</v>
+      <c r="AS74" s="11">
+        <v>8555</v>
       </c>
       <c r="AT74" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU74" s="11">
-        <v>8555</v>
-      </c>
-      <c r="AV74" s="11" t="s">
-        <v>58</v>
+        <v>4235</v>
+      </c>
+      <c r="AV74" s="11">
+        <v>22555</v>
       </c>
       <c r="AW74" s="11">
-        <v>4235</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="11">
-        <v>22555</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="11">
-        <v>0</v>
+        <v>17478</v>
       </c>
       <c r="AZ74" s="11">
         <v>0</v>
       </c>
       <c r="BA74" s="11">
-        <v>17477</v>
+        <v>4210</v>
       </c>
       <c r="BB74" s="11">
-        <v>0</v>
+        <v>13580</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10067,34 +10067,34 @@
         <v>0</v>
       </c>
       <c r="AS75" s="15">
-        <v>0</v>
+        <v>9293</v>
       </c>
       <c r="AT75" s="15">
         <v>0</v>
       </c>
       <c r="AU75" s="15">
-        <v>9293</v>
+        <v>14817</v>
       </c>
       <c r="AV75" s="15">
-        <v>0</v>
+        <v>118050</v>
       </c>
       <c r="AW75" s="15">
-        <v>14817</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="15">
-        <v>118050</v>
+        <v>49676</v>
       </c>
       <c r="AY75" s="15">
-        <v>0</v>
+        <v>148206</v>
       </c>
       <c r="AZ75" s="15">
-        <v>49676</v>
+        <v>27225</v>
       </c>
       <c r="BA75" s="15">
-        <v>148205</v>
+        <v>34484</v>
       </c>
       <c r="BB75" s="15">
-        <v>27225</v>
+        <v>152338</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10282,20 +10282,20 @@
       <c r="AR77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS77" s="11" t="s">
-        <v>58</v>
+      <c r="AS77" s="11">
+        <v>1017257</v>
       </c>
       <c r="AT77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU77" s="11">
-        <v>1017257</v>
-      </c>
-      <c r="AV77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW77" s="11" t="s">
-        <v>58</v>
+      <c r="AU77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW77" s="11">
+        <v>0</v>
       </c>
       <c r="AX77" s="11">
         <v>0</v>
@@ -10408,11 +10408,11 @@
       <c r="AG78" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH78" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI78" s="15" t="s">
-        <v>58</v>
+      <c r="AH78" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="15">
+        <v>0</v>
       </c>
       <c r="AJ78" s="15">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="AS78" s="15">
-        <v>0</v>
+        <v>1017257</v>
       </c>
       <c r="AT78" s="15">
         <v>0</v>
       </c>
       <c r="AU78" s="15">
-        <v>1017257</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="15">
         <v>0</v>
@@ -10630,23 +10630,23 @@
       <c r="AI80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK80" s="11" t="s">
-        <v>58</v>
+      <c r="AJ80" s="11">
+        <v>-10941</v>
+      </c>
+      <c r="AK80" s="11">
+        <v>0</v>
       </c>
       <c r="AL80" s="11">
-        <v>-10941</v>
+        <v>-29518</v>
       </c>
       <c r="AM80" s="11">
-        <v>0</v>
+        <v>-24238</v>
       </c>
       <c r="AN80" s="11">
-        <v>-29518</v>
+        <v>0</v>
       </c>
       <c r="AO80" s="11">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AP80" s="11">
         <v>0</v>
@@ -10660,29 +10660,29 @@
       <c r="AS80" s="11">
         <v>0</v>
       </c>
-      <c r="AT80" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU80" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW80" s="11" t="s">
-        <v>58</v>
+      <c r="AT80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV80" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW80" s="11">
+        <v>-10666</v>
       </c>
       <c r="AX80" s="11">
         <v>0</v>
       </c>
       <c r="AY80" s="11">
-        <v>-10666</v>
+        <v>0</v>
       </c>
       <c r="AZ80" s="11">
         <v>0</v>
       </c>
       <c r="BA80" s="11">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="BB80" s="11">
         <v>0</v>
@@ -10792,14 +10792,14 @@
       <c r="AJ81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL81" s="13" t="s">
-        <v>58</v>
+      <c r="AK81" s="13">
+        <v>-177</v>
+      </c>
+      <c r="AL81" s="13">
+        <v>0</v>
       </c>
       <c r="AM81" s="13">
-        <v>-177</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="13">
         <v>0</v>
@@ -10819,11 +10819,11 @@
       <c r="AS81" s="13">
         <v>0</v>
       </c>
-      <c r="AT81" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU81" s="13">
-        <v>0</v>
+      <c r="AT81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV81" s="13" t="s">
         <v>58</v>
@@ -10831,20 +10831,20 @@
       <c r="AW81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY81" s="13" t="s">
-        <v>58</v>
+      <c r="AX81" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY81" s="13">
+        <v>0</v>
       </c>
       <c r="AZ81" s="13">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="BA81" s="13">
         <v>0</v>
       </c>
       <c r="BB81" s="13">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10942,23 +10942,23 @@
       <c r="AG82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI82" s="11" t="s">
-        <v>58</v>
+      <c r="AH82" s="11">
+        <v>-8492</v>
+      </c>
+      <c r="AI82" s="11">
+        <v>-2601</v>
       </c>
       <c r="AJ82" s="11">
-        <v>-8492</v>
+        <v>-91</v>
       </c>
       <c r="AK82" s="11">
-        <v>-2601</v>
+        <v>-5950</v>
       </c>
       <c r="AL82" s="11">
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="11">
-        <v>-5950</v>
+        <v>0</v>
       </c>
       <c r="AN82" s="11">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="AX82" s="11">
-        <v>-2190</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="11">
         <v>0</v>
@@ -11110,56 +11110,56 @@
       <c r="AJ83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL83" s="13" t="s">
-        <v>58</v>
+      <c r="AK83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="13">
+        <v>-2019</v>
       </c>
       <c r="AM83" s="13">
         <v>0</v>
       </c>
       <c r="AN83" s="13">
-        <v>-2019</v>
+        <v>0</v>
       </c>
       <c r="AO83" s="13">
         <v>0</v>
       </c>
       <c r="AP83" s="13">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AQ83" s="13">
         <v>0</v>
       </c>
       <c r="AR83" s="13">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AS83" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT83" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU83" s="13">
         <v>-2104</v>
       </c>
-      <c r="AV83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX83" s="13" t="s">
-        <v>58</v>
+      <c r="AT83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="13">
+        <v>-2515</v>
+      </c>
+      <c r="AX83" s="13">
+        <v>-391</v>
       </c>
       <c r="AY83" s="13">
-        <v>-2515</v>
+        <v>-1076</v>
       </c>
       <c r="AZ83" s="13">
-        <v>-391</v>
+        <v>0</v>
       </c>
       <c r="BA83" s="13">
-        <v>-1076</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="13">
         <v>0</v>
@@ -11260,68 +11260,68 @@
       <c r="AG84" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AH84" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI84" s="17" t="s">
-        <v>58</v>
+      <c r="AH84" s="17">
+        <v>-8492</v>
+      </c>
+      <c r="AI84" s="17">
+        <v>-2601</v>
       </c>
       <c r="AJ84" s="17">
-        <v>-8492</v>
+        <v>-11032</v>
       </c>
       <c r="AK84" s="17">
-        <v>-2601</v>
+        <v>-6127</v>
       </c>
       <c r="AL84" s="17">
-        <v>-11032</v>
+        <v>-31537</v>
       </c>
       <c r="AM84" s="17">
-        <v>-6127</v>
+        <v>-24238</v>
       </c>
       <c r="AN84" s="17">
-        <v>-31537</v>
+        <v>0</v>
       </c>
       <c r="AO84" s="17">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AP84" s="17">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AQ84" s="17">
         <v>0</v>
       </c>
       <c r="AR84" s="17">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="17">
-        <v>0</v>
+        <v>-2104</v>
       </c>
       <c r="AT84" s="17">
         <v>0</v>
       </c>
       <c r="AU84" s="17">
-        <v>-2104</v>
+        <v>0</v>
       </c>
       <c r="AV84" s="17">
-        <v>0</v>
+        <v>-2190</v>
       </c>
       <c r="AW84" s="17">
-        <v>0</v>
+        <v>-13181</v>
       </c>
       <c r="AX84" s="17">
-        <v>-2190</v>
+        <v>-391</v>
       </c>
       <c r="AY84" s="17">
-        <v>-13181</v>
+        <v>-1076</v>
       </c>
       <c r="AZ84" s="17">
-        <v>-391</v>
+        <v>-20</v>
       </c>
       <c r="BA84" s="17">
-        <v>-1076</v>
+        <v>-1350</v>
       </c>
       <c r="BB84" s="17">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11476,68 +11476,68 @@
       <c r="AG86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI86" s="11" t="s">
-        <v>58</v>
+      <c r="AH86" s="11">
+        <v>-1667</v>
+      </c>
+      <c r="AI86" s="11">
+        <v>-2094</v>
       </c>
       <c r="AJ86" s="11">
-        <v>-1667</v>
+        <v>-4779</v>
       </c>
       <c r="AK86" s="11">
-        <v>-2094</v>
+        <v>-5947</v>
       </c>
       <c r="AL86" s="11">
-        <v>-4779</v>
+        <v>-27148</v>
       </c>
       <c r="AM86" s="11">
-        <v>-5947</v>
+        <v>-54419</v>
       </c>
       <c r="AN86" s="11">
-        <v>-27148</v>
+        <v>-45778</v>
       </c>
       <c r="AO86" s="11">
-        <v>-54419</v>
+        <v>-10506</v>
       </c>
       <c r="AP86" s="11">
-        <v>-45778</v>
+        <v>-27326</v>
       </c>
       <c r="AQ86" s="11">
-        <v>-10506</v>
+        <v>-66610</v>
       </c>
       <c r="AR86" s="11">
-        <v>-27326</v>
+        <v>-107832</v>
       </c>
       <c r="AS86" s="11">
-        <v>-66610</v>
+        <v>-92389</v>
       </c>
       <c r="AT86" s="11">
-        <v>-107832</v>
+        <v>-66891</v>
       </c>
       <c r="AU86" s="11">
-        <v>-92389</v>
+        <v>-40112</v>
       </c>
       <c r="AV86" s="11">
-        <v>-66891</v>
+        <v>-8036</v>
       </c>
       <c r="AW86" s="11">
-        <v>-40112</v>
+        <v>-8348</v>
       </c>
       <c r="AX86" s="11">
-        <v>-8036</v>
+        <v>-32421</v>
       </c>
       <c r="AY86" s="11">
-        <v>-8348</v>
+        <v>-50536</v>
       </c>
       <c r="AZ86" s="11">
-        <v>-32421</v>
+        <v>-29093</v>
       </c>
       <c r="BA86" s="11">
-        <v>-50536</v>
+        <v>-21147</v>
       </c>
       <c r="BB86" s="11">
-        <v>-29093</v>
+        <v>-9379</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11634,67 +11634,67 @@
         <v>0</v>
       </c>
       <c r="AH87" s="15">
-        <v>0</v>
+        <v>960288</v>
       </c>
       <c r="AI87" s="15">
-        <v>0</v>
+        <v>1124601</v>
       </c>
       <c r="AJ87" s="15">
-        <v>960288</v>
+        <v>1155680</v>
       </c>
       <c r="AK87" s="15">
-        <v>1124601</v>
+        <v>1041968</v>
       </c>
       <c r="AL87" s="15">
-        <v>1155680</v>
+        <v>1171387</v>
       </c>
       <c r="AM87" s="15">
-        <v>1041968</v>
+        <v>1277642</v>
       </c>
       <c r="AN87" s="15">
-        <v>1171387</v>
+        <v>984424</v>
       </c>
       <c r="AO87" s="15">
-        <v>1277642</v>
+        <v>1397122</v>
       </c>
       <c r="AP87" s="15">
-        <v>984424</v>
+        <v>1550125</v>
       </c>
       <c r="AQ87" s="15">
-        <v>1397122</v>
+        <v>1645437</v>
       </c>
       <c r="AR87" s="15">
-        <v>1550125</v>
+        <v>1512079</v>
       </c>
       <c r="AS87" s="15">
-        <v>1645437</v>
+        <v>2389804</v>
       </c>
       <c r="AT87" s="15">
-        <v>1512079</v>
+        <v>1037235</v>
       </c>
       <c r="AU87" s="15">
-        <v>2389804</v>
+        <v>1633251</v>
       </c>
       <c r="AV87" s="15">
-        <v>1037235</v>
+        <v>1935596</v>
       </c>
       <c r="AW87" s="15">
-        <v>1633251</v>
+        <v>1728949</v>
       </c>
       <c r="AX87" s="15">
-        <v>1933406</v>
+        <v>1508304</v>
       </c>
       <c r="AY87" s="15">
-        <v>1728949</v>
+        <v>2153963</v>
       </c>
       <c r="AZ87" s="15">
-        <v>1508304</v>
+        <v>1945438</v>
       </c>
       <c r="BA87" s="15">
-        <v>2153962</v>
+        <v>2017417</v>
       </c>
       <c r="BB87" s="15">
-        <v>1945438</v>
+        <v>2011467</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12259,35 +12259,35 @@
       <c r="AR94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS94" s="11" t="s">
-        <v>58</v>
+      <c r="AS94" s="11">
+        <v>543000000</v>
       </c>
       <c r="AT94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU94" s="11">
-        <v>543000000</v>
-      </c>
-      <c r="AV94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX94" s="11">
+      <c r="AU94" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV94" s="11">
         <v>250000000</v>
       </c>
+      <c r="AW94" s="11">
+        <v>859500000</v>
+      </c>
+      <c r="AX94" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AY94" s="11">
-        <v>859500000</v>
-      </c>
-      <c r="AZ94" s="11" t="s">
-        <v>58</v>
+        <v>755419355</v>
+      </c>
+      <c r="AZ94" s="11">
+        <v>735300752</v>
       </c>
       <c r="BA94" s="11">
-        <v>755419355</v>
-      </c>
-      <c r="BB94" s="11">
-        <v>735300752</v>
+        <v>752058824</v>
+      </c>
+      <c r="BB94" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -12385,68 +12385,68 @@
       <c r="AG95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI95" s="13" t="s">
-        <v>58</v>
+      <c r="AH95" s="13">
+        <v>577794510</v>
+      </c>
+      <c r="AI95" s="13">
+        <v>588523506</v>
       </c>
       <c r="AJ95" s="13">
-        <v>577794510</v>
+        <v>595918244</v>
       </c>
       <c r="AK95" s="13">
-        <v>588523506</v>
+        <v>578821712</v>
       </c>
       <c r="AL95" s="13">
-        <v>595918244</v>
+        <v>535621203</v>
       </c>
       <c r="AM95" s="13">
-        <v>578821712</v>
+        <v>555465505</v>
       </c>
       <c r="AN95" s="13">
-        <v>535621203</v>
+        <v>565730196</v>
       </c>
       <c r="AO95" s="13">
-        <v>555465505</v>
+        <v>561390707</v>
       </c>
       <c r="AP95" s="13">
-        <v>565730196</v>
+        <v>561240042</v>
       </c>
       <c r="AQ95" s="13">
-        <v>561390707</v>
+        <v>564338498</v>
       </c>
       <c r="AR95" s="13">
-        <v>561240042</v>
+        <v>566349865</v>
       </c>
       <c r="AS95" s="13">
-        <v>564338498</v>
+        <v>551511304</v>
       </c>
       <c r="AT95" s="13">
-        <v>566349865</v>
+        <v>550162162</v>
       </c>
       <c r="AU95" s="13">
-        <v>551511304</v>
+        <v>538575715</v>
       </c>
       <c r="AV95" s="13">
-        <v>550162162</v>
+        <v>623720153</v>
       </c>
       <c r="AW95" s="13">
-        <v>538575715</v>
+        <v>667180407</v>
       </c>
       <c r="AX95" s="13">
-        <v>623720153</v>
+        <v>659578333</v>
       </c>
       <c r="AY95" s="13">
-        <v>667180407</v>
+        <v>891442004</v>
       </c>
       <c r="AZ95" s="13">
-        <v>659578333</v>
+        <v>708199348</v>
       </c>
       <c r="BA95" s="13">
-        <v>891442004</v>
+        <v>709113886</v>
       </c>
       <c r="BB95" s="13">
-        <v>708199348</v>
+        <v>803970643</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12544,68 +12544,68 @@
       <c r="AG96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI96" s="11" t="s">
-        <v>58</v>
+      <c r="AH96" s="11">
+        <v>589977273</v>
+      </c>
+      <c r="AI96" s="11">
+        <v>751696970</v>
       </c>
       <c r="AJ96" s="11">
-        <v>589977273</v>
+        <v>634394673</v>
       </c>
       <c r="AK96" s="11">
-        <v>751696970</v>
+        <v>582690789</v>
       </c>
       <c r="AL96" s="11">
-        <v>634394673</v>
+        <v>603875472</v>
       </c>
       <c r="AM96" s="11">
-        <v>582690789</v>
+        <v>614024390</v>
       </c>
       <c r="AN96" s="11">
-        <v>603875472</v>
+        <v>654061033</v>
       </c>
       <c r="AO96" s="11">
-        <v>614024390</v>
+        <v>628084691</v>
       </c>
       <c r="AP96" s="11">
-        <v>654061033</v>
+        <v>664016327</v>
       </c>
       <c r="AQ96" s="11">
-        <v>628084691</v>
+        <v>854439130</v>
       </c>
       <c r="AR96" s="11">
-        <v>664016327</v>
+        <v>780127841</v>
       </c>
       <c r="AS96" s="11">
-        <v>854439130</v>
+        <v>756182482</v>
       </c>
       <c r="AT96" s="11">
-        <v>780127841</v>
+        <v>778416667</v>
       </c>
       <c r="AU96" s="11">
-        <v>756182482</v>
+        <v>754853503</v>
       </c>
       <c r="AV96" s="11">
-        <v>778416667</v>
+        <v>783330159</v>
       </c>
       <c r="AW96" s="11">
-        <v>754853503</v>
+        <v>791804255</v>
       </c>
       <c r="AX96" s="11">
-        <v>783330159</v>
+        <v>838861538</v>
       </c>
       <c r="AY96" s="11">
-        <v>791804255</v>
+        <v>915260563</v>
       </c>
       <c r="AZ96" s="11">
-        <v>838861538</v>
+        <v>878318681</v>
       </c>
       <c r="BA96" s="11">
-        <v>915260563</v>
+        <v>933769481</v>
       </c>
       <c r="BB96" s="11">
-        <v>878318681</v>
+        <v>922773723</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12703,68 +12703,68 @@
       <c r="AG97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI97" s="13" t="s">
-        <v>58</v>
+      <c r="AH97" s="13">
+        <v>557807692</v>
+      </c>
+      <c r="AI97" s="13">
+        <v>533410256</v>
       </c>
       <c r="AJ97" s="13">
-        <v>557807692</v>
+        <v>503359281</v>
       </c>
       <c r="AK97" s="13">
-        <v>533410256</v>
+        <v>502563953</v>
       </c>
       <c r="AL97" s="13">
-        <v>503359281</v>
+        <v>521775281</v>
       </c>
       <c r="AM97" s="13">
-        <v>502563953</v>
+        <v>553498182</v>
       </c>
       <c r="AN97" s="13">
-        <v>521775281</v>
+        <v>553439791</v>
       </c>
       <c r="AO97" s="13">
-        <v>553498182</v>
+        <v>554925481</v>
       </c>
       <c r="AP97" s="13">
-        <v>553439791</v>
+        <v>601547074</v>
       </c>
       <c r="AQ97" s="13">
-        <v>554925481</v>
+        <v>628701010</v>
       </c>
       <c r="AR97" s="13">
-        <v>601547074</v>
+        <v>632464286</v>
       </c>
       <c r="AS97" s="13">
-        <v>628701010</v>
+        <v>1003531646</v>
       </c>
       <c r="AT97" s="13">
-        <v>632464286</v>
+        <v>700890756</v>
       </c>
       <c r="AU97" s="13">
-        <v>1003531646</v>
+        <v>670207254</v>
       </c>
       <c r="AV97" s="13">
-        <v>700890756</v>
+        <v>717743590</v>
       </c>
       <c r="AW97" s="13">
-        <v>670207254</v>
+        <v>717082474</v>
       </c>
       <c r="AX97" s="13">
-        <v>717743590</v>
+        <v>737029851</v>
       </c>
       <c r="AY97" s="13">
-        <v>717082474</v>
+        <v>737536145</v>
       </c>
       <c r="AZ97" s="13">
-        <v>737029851</v>
+        <v>740735192</v>
       </c>
       <c r="BA97" s="13">
-        <v>737536145</v>
+        <v>768592920</v>
       </c>
       <c r="BB97" s="13">
-        <v>740735192</v>
+        <v>814378855</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12862,68 +12862,68 @@
       <c r="AG98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI98" s="11" t="s">
-        <v>58</v>
+      <c r="AH98" s="11">
+        <v>469388060</v>
+      </c>
+      <c r="AI98" s="11">
+        <v>476917293</v>
       </c>
       <c r="AJ98" s="11">
-        <v>469388060</v>
+        <v>444609091</v>
       </c>
       <c r="AK98" s="11">
-        <v>476917293</v>
+        <v>459209524</v>
       </c>
       <c r="AL98" s="11">
-        <v>444609091</v>
+        <v>473574468</v>
       </c>
       <c r="AM98" s="11">
-        <v>459209524</v>
+        <v>482474419</v>
       </c>
       <c r="AN98" s="11">
-        <v>473574468</v>
+        <v>480255639</v>
       </c>
       <c r="AO98" s="11">
-        <v>482474419</v>
+        <v>488961240</v>
       </c>
       <c r="AP98" s="11">
-        <v>480255639</v>
+        <v>486748879</v>
       </c>
       <c r="AQ98" s="11">
-        <v>488961240</v>
+        <v>482841270</v>
       </c>
       <c r="AR98" s="11">
-        <v>486748879</v>
+        <v>481417910</v>
       </c>
       <c r="AS98" s="11">
-        <v>482841270</v>
+        <v>498491803</v>
       </c>
       <c r="AT98" s="11">
-        <v>481417910</v>
+        <v>493192308</v>
       </c>
       <c r="AU98" s="11">
-        <v>498491803</v>
+        <v>482794613</v>
       </c>
       <c r="AV98" s="11">
-        <v>493192308</v>
+        <v>485730769</v>
       </c>
       <c r="AW98" s="11">
-        <v>482794613</v>
+        <v>525468293</v>
       </c>
       <c r="AX98" s="11">
-        <v>485730769</v>
+        <v>762939394</v>
       </c>
       <c r="AY98" s="11">
-        <v>525468293</v>
+        <v>611932927</v>
       </c>
       <c r="AZ98" s="11">
-        <v>762939394</v>
+        <v>622426667</v>
       </c>
       <c r="BA98" s="11">
-        <v>611932927</v>
+        <v>825390533</v>
       </c>
       <c r="BB98" s="11">
-        <v>622426667</v>
+        <v>729172589</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13117,29 +13117,29 @@
       <c r="AT100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW100" s="11">
+      <c r="AU100" s="11">
         <v>732000000</v>
       </c>
+      <c r="AV100" s="11">
+        <v>556500000</v>
+      </c>
+      <c r="AW100" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX100" s="11">
-        <v>556500000</v>
-      </c>
-      <c r="AY100" s="11" t="s">
-        <v>58</v>
+        <v>953000000</v>
+      </c>
+      <c r="AY100" s="11">
+        <v>0</v>
       </c>
       <c r="AZ100" s="11">
-        <v>953000000</v>
+        <v>805909091</v>
       </c>
       <c r="BA100" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BB100" s="11">
-        <v>805909091</v>
+        <v>777710145</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -13270,35 +13270,35 @@
       <c r="AR101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS101" s="13" t="s">
-        <v>58</v>
+      <c r="AS101" s="13">
+        <v>738000000</v>
       </c>
       <c r="AT101" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU101" s="13">
-        <v>738000000</v>
-      </c>
-      <c r="AV101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW101" s="13">
         <v>615625000</v>
       </c>
+      <c r="AV101" s="13">
+        <v>598921875</v>
+      </c>
+      <c r="AW101" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX101" s="13">
-        <v>598921875</v>
-      </c>
-      <c r="AY101" s="13" t="s">
-        <v>58</v>
+        <v>676708333</v>
+      </c>
+      <c r="AY101" s="13">
+        <v>700990991</v>
       </c>
       <c r="AZ101" s="13">
-        <v>676708333</v>
+        <v>765000000</v>
       </c>
       <c r="BA101" s="13">
-        <v>700990991</v>
+        <v>753478261</v>
       </c>
       <c r="BB101" s="13">
-        <v>765000000</v>
+        <v>809753247</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13447,17 +13447,17 @@
       <c r="AX102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY102" s="11" t="s">
-        <v>58</v>
+      <c r="AY102" s="11">
+        <v>710044118</v>
       </c>
       <c r="AZ102" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BA102" s="11">
-        <v>710044118</v>
-      </c>
-      <c r="BB102" s="11" t="s">
-        <v>58</v>
+        <v>995692308</v>
+      </c>
+      <c r="BB102" s="11">
+        <v>909800000</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13597,23 +13597,23 @@
       <c r="AU103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV103" s="13" t="s">
-        <v>58</v>
+      <c r="AV103" s="13">
+        <v>656296296</v>
       </c>
       <c r="AW103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX103" s="13">
-        <v>656296296</v>
-      </c>
-      <c r="AY103" s="13" t="s">
-        <v>58</v>
+      <c r="AX103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY103" s="13">
+        <v>662142857</v>
       </c>
       <c r="AZ103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA103" s="13">
-        <v>662142857</v>
+      <c r="BA103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB103" s="13" t="s">
         <v>58</v>
@@ -13747,35 +13747,35 @@
       <c r="AR104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS104" s="11" t="s">
-        <v>58</v>
+      <c r="AS104" s="11">
+        <v>611071429</v>
       </c>
       <c r="AT104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU104" s="11">
-        <v>611071429</v>
-      </c>
-      <c r="AV104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW104" s="11">
         <v>605000000</v>
       </c>
-      <c r="AX104" s="11">
+      <c r="AV104" s="11">
         <v>609594595</v>
       </c>
-      <c r="AY104" s="11" t="s">
-        <v>58</v>
+      <c r="AW104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY104" s="11">
+        <v>615770086</v>
       </c>
       <c r="AZ104" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BA104" s="11">
-        <v>624178571</v>
-      </c>
-      <c r="BB104" s="11" t="s">
-        <v>58</v>
+        <v>842000000</v>
+      </c>
+      <c r="BB104" s="11">
+        <v>646666667</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -13963,20 +13963,20 @@
       <c r="AR106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS106" s="11" t="s">
-        <v>58</v>
+      <c r="AS106" s="11">
+        <v>0</v>
       </c>
       <c r="AT106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU106" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW106" s="11" t="s">
-        <v>58</v>
+      <c r="AU106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV106" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW106" s="11">
+        <v>0</v>
       </c>
       <c r="AX106" s="11">
         <v>0</v>

--- a/database/industries/lastic/parta/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/parta/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3384,44 +3384,44 @@
       <c r="AN11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AO11" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AQ11" s="13" t="s">
-        <v>58</v>
+      <c r="AP11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>80</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="13" t="n">
         <v>0</v>
@@ -3510,80 +3510,80 @@
       <c r="AC12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="16" t="s">
-        <v>58</v>
+      <c r="AD12" s="16" t="n">
+        <v>986</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>986</v>
+        <v>1544</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>1544</v>
+        <v>2068</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>2068</v>
+        <v>1690</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>1690</v>
+        <v>1202</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>1202</v>
+        <v>1405</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>1405</v>
+        <v>1429</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>1429</v>
+        <v>1481</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>1481</v>
+        <v>1623</v>
       </c>
       <c r="AM12" s="16" t="n">
+        <v>1628</v>
+      </c>
+      <c r="AN12" s="16" t="n">
         <v>1623</v>
       </c>
-      <c r="AN12" s="16" t="n">
-        <v>1628</v>
-      </c>
       <c r="AO12" s="16" t="n">
-        <v>1623</v>
+        <v>1338</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>1338</v>
+        <v>1193</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1193</v>
+        <v>1760</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>1760</v>
+        <v>1743</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>1743</v>
+        <v>1725</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>1725</v>
+        <v>1474</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>1474</v>
+        <v>1606</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>1614</v>
+        <v>1453</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>1453</v>
+        <v>1618</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>1618</v>
+        <v>1471</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>1471</v>
+        <v>1550</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>1550</v>
+        <v>1385</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>1385</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,80 +3669,80 @@
       <c r="AC13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD13" s="13" t="s">
-        <v>58</v>
+      <c r="AD13" s="13" t="n">
+        <v>160</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="AF13" s="13" t="n">
+        <v>276</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>262</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>235</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>299</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>319</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>309</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>307</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>306</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>300</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>261</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>246</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>363</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>367</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>349</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>320</v>
+      </c>
+      <c r="AU13" s="13" t="n">
         <v>357</v>
       </c>
-      <c r="AG13" s="13" t="n">
-        <v>276</v>
-      </c>
-      <c r="AH13" s="13" t="n">
-        <v>262</v>
-      </c>
-      <c r="AI13" s="13" t="n">
-        <v>235</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>299</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>319</v>
-      </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AV13" s="13" t="n">
+        <v>344</v>
+      </c>
+      <c r="AW13" s="13" t="n">
         <v>309</v>
       </c>
-      <c r="AM13" s="13" t="n">
-        <v>307</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>306</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>261</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>246</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>363</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>367</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>349</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>320</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>357</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>344</v>
-      </c>
       <c r="AX13" s="13" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,80 +3828,80 @@
       <c r="AC14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" s="16" t="s">
-        <v>58</v>
+      <c r="AD14" s="16" t="n">
+        <v>177</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>148</v>
+        <v>586</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>586</v>
+        <v>354</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AT14" s="16" t="n">
+        <v>312</v>
+      </c>
+      <c r="AU14" s="16" t="n">
         <v>335</v>
       </c>
-      <c r="AU14" s="16" t="n">
-        <v>312</v>
-      </c>
       <c r="AV14" s="16" t="n">
+        <v>318</v>
+      </c>
+      <c r="AW14" s="16" t="n">
+        <v>291</v>
+      </c>
+      <c r="AX14" s="16" t="n">
+        <v>336</v>
+      </c>
+      <c r="AY14" s="16" t="n">
+        <v>311</v>
+      </c>
+      <c r="AZ14" s="16" t="n">
         <v>335</v>
       </c>
-      <c r="AW14" s="16" t="n">
-        <v>318</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>291</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>336</v>
-      </c>
-      <c r="AZ14" s="16" t="n">
-        <v>311</v>
-      </c>
       <c r="BA14" s="16" t="n">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>274</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,80 +3987,80 @@
       <c r="AC15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD15" s="13" t="s">
-        <v>58</v>
+      <c r="AD15" s="13" t="n">
+        <v>62</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="AR15" s="13" t="n">
         <v>198</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="AX15" s="13" t="n">
+        <v>196</v>
+      </c>
+      <c r="AY15" s="13" t="n">
         <v>160</v>
       </c>
-      <c r="AY15" s="13" t="n">
-        <v>196</v>
-      </c>
       <c r="AZ15" s="13" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,79 +4145,79 @@
         <v>0</v>
       </c>
       <c r="AD16" s="18" t="n">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="AE16" s="18" t="n">
-        <v>1385</v>
+        <v>2187</v>
       </c>
       <c r="AF16" s="18" t="n">
-        <v>2187</v>
+        <v>3135</v>
       </c>
       <c r="AG16" s="18" t="n">
-        <v>3135</v>
+        <v>2493</v>
       </c>
       <c r="AH16" s="18" t="n">
-        <v>2493</v>
+        <v>1726</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>1726</v>
+        <v>2201</v>
       </c>
       <c r="AJ16" s="18" t="n">
-        <v>2201</v>
+        <v>2254</v>
       </c>
       <c r="AK16" s="18" t="n">
-        <v>2254</v>
+        <v>2237</v>
       </c>
       <c r="AL16" s="18" t="n">
-        <v>2237</v>
+        <v>2396</v>
       </c>
       <c r="AM16" s="18" t="n">
-        <v>2396</v>
+        <v>2412</v>
       </c>
       <c r="AN16" s="18" t="n">
-        <v>2412</v>
+        <v>2360</v>
       </c>
       <c r="AO16" s="18" t="n">
-        <v>2360</v>
+        <v>1998</v>
       </c>
       <c r="AP16" s="18" t="n">
-        <v>1998</v>
+        <v>1810</v>
       </c>
       <c r="AQ16" s="18" t="n">
-        <v>1810</v>
+        <v>2727</v>
       </c>
       <c r="AR16" s="18" t="n">
-        <v>2727</v>
+        <v>2663</v>
       </c>
       <c r="AS16" s="18" t="n">
-        <v>2663</v>
+        <v>2597</v>
       </c>
       <c r="AT16" s="18" t="n">
-        <v>2597</v>
+        <v>2288</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>2288</v>
+        <v>2518</v>
       </c>
       <c r="AV16" s="18" t="n">
-        <v>2518</v>
+        <v>2594</v>
       </c>
       <c r="AW16" s="18" t="n">
-        <v>2594</v>
+        <v>2517</v>
       </c>
       <c r="AX16" s="18" t="n">
-        <v>2517</v>
+        <v>2473</v>
       </c>
       <c r="AY16" s="18" t="n">
-        <v>2473</v>
+        <v>2219</v>
       </c>
       <c r="AZ16" s="18" t="n">
-        <v>2219</v>
+        <v>2400</v>
       </c>
       <c r="BA16" s="18" t="n">
-        <v>2400</v>
+        <v>2127</v>
       </c>
       <c r="BB16" s="18" t="n">
-        <v>2127</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,8 +4399,8 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
+      <c r="AQ18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR18" s="13" t="n">
         <v>0</v>
@@ -4432,8 +4432,8 @@
       <c r="BA18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB18" s="13" t="n">
-        <v>0</v>
+      <c r="BB18" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,14 +4552,14 @@
       <c r="AN19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="16" t="s">
-        <v>58</v>
+      <c r="AO19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ19" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR19" s="16" t="n">
         <v>0</v>
@@ -4591,8 +4591,8 @@
       <c r="BA19" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB19" s="16" t="n">
-        <v>0</v>
+      <c r="BB19" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,8 +4729,8 @@
       <c r="AT20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU20" s="13" t="s">
-        <v>58</v>
+      <c r="AU20" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AV20" s="13" t="n">
         <v>0</v>
@@ -4750,8 +4750,8 @@
       <c r="BA20" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB20" s="13" t="n">
-        <v>0</v>
+      <c r="BB20" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,8 +4879,8 @@
       <c r="AQ21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="16" t="s">
-        <v>58</v>
+      <c r="AR21" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS21" s="16" t="n">
         <v>0</v>
@@ -4909,8 +4909,8 @@
       <c r="BA21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB21" s="16" t="n">
-        <v>0</v>
+      <c r="BB21" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,14 +5029,14 @@
       <c r="AN22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
+      <c r="AO22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR22" s="13" t="n">
         <v>0</v>
@@ -5068,8 +5068,8 @@
       <c r="BA22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB22" s="13" t="n">
-        <v>0</v>
+      <c r="BB22" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,8 +5526,8 @@
       <c r="AC26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" s="18" t="s">
-        <v>58</v>
+      <c r="AD26" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AE26" s="18" t="n">
         <v>0</v>
@@ -5684,79 +5684,79 @@
         <v>0</v>
       </c>
       <c r="AD27" s="20" t="n">
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="AE27" s="20" t="n">
-        <v>1385</v>
+        <v>2187</v>
       </c>
       <c r="AF27" s="20" t="n">
-        <v>2187</v>
+        <v>3135</v>
       </c>
       <c r="AG27" s="20" t="n">
-        <v>3135</v>
+        <v>2493</v>
       </c>
       <c r="AH27" s="20" t="n">
-        <v>2493</v>
+        <v>1726</v>
       </c>
       <c r="AI27" s="20" t="n">
-        <v>1726</v>
+        <v>2201</v>
       </c>
       <c r="AJ27" s="20" t="n">
-        <v>2201</v>
+        <v>2254</v>
       </c>
       <c r="AK27" s="20" t="n">
-        <v>2254</v>
+        <v>2237</v>
       </c>
       <c r="AL27" s="20" t="n">
-        <v>2237</v>
+        <v>2396</v>
       </c>
       <c r="AM27" s="20" t="n">
-        <v>2396</v>
+        <v>2412</v>
       </c>
       <c r="AN27" s="20" t="n">
-        <v>2412</v>
+        <v>2360</v>
       </c>
       <c r="AO27" s="20" t="n">
-        <v>2360</v>
+        <v>1998</v>
       </c>
       <c r="AP27" s="20" t="n">
-        <v>1998</v>
+        <v>1810</v>
       </c>
       <c r="AQ27" s="20" t="n">
-        <v>1810</v>
+        <v>2727</v>
       </c>
       <c r="AR27" s="20" t="n">
-        <v>2727</v>
+        <v>2663</v>
       </c>
       <c r="AS27" s="20" t="n">
-        <v>2663</v>
+        <v>2597</v>
       </c>
       <c r="AT27" s="20" t="n">
-        <v>2597</v>
+        <v>2288</v>
       </c>
       <c r="AU27" s="20" t="n">
-        <v>2288</v>
+        <v>2518</v>
       </c>
       <c r="AV27" s="20" t="n">
-        <v>2518</v>
+        <v>2594</v>
       </c>
       <c r="AW27" s="20" t="n">
-        <v>2594</v>
+        <v>2517</v>
       </c>
       <c r="AX27" s="20" t="n">
-        <v>2517</v>
+        <v>2473</v>
       </c>
       <c r="AY27" s="20" t="n">
-        <v>2473</v>
+        <v>2219</v>
       </c>
       <c r="AZ27" s="20" t="n">
-        <v>2219</v>
+        <v>2400</v>
       </c>
       <c r="BA27" s="20" t="n">
-        <v>2400</v>
+        <v>2127</v>
       </c>
       <c r="BB27" s="20" t="n">
-        <v>2127</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,35 +6309,35 @@
       <c r="AN34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP34" s="13" t="n">
+      <c r="AO34" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AQ34" s="13" t="s">
-        <v>58</v>
+      <c r="AP34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR34" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="13" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV34" s="13" t="n">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="13" t="n">
         <v>0</v>
@@ -6435,80 +6435,80 @@
       <c r="AC35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD35" s="16" t="s">
-        <v>58</v>
+      <c r="AD35" s="16" t="n">
+        <v>1275</v>
       </c>
       <c r="AE35" s="16" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AF35" s="16" t="n">
+        <v>1162</v>
+      </c>
+      <c r="AG35" s="16" t="n">
+        <v>1133</v>
+      </c>
+      <c r="AH35" s="16" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AI35" s="16" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AJ35" s="16" t="n">
         <v>1275</v>
       </c>
-      <c r="AF35" s="16" t="n">
-        <v>1255</v>
-      </c>
-      <c r="AG35" s="16" t="n">
-        <v>1162</v>
-      </c>
-      <c r="AH35" s="16" t="n">
-        <v>1133</v>
-      </c>
-      <c r="AI35" s="16" t="n">
-        <v>1613</v>
-      </c>
-      <c r="AJ35" s="16" t="n">
-        <v>1435</v>
-      </c>
       <c r="AK35" s="16" t="n">
-        <v>1275</v>
+        <v>1528</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>1528</v>
+        <v>1908</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>1908</v>
+        <v>1678</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>1678</v>
+        <v>1855</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>1855</v>
+        <v>1725</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>1725</v>
+        <v>1184</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>1184</v>
+        <v>2133</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>2133</v>
+        <v>1826</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>1826</v>
+        <v>1868</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>1868</v>
+        <v>1200</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>1200</v>
+        <v>1457</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>1457</v>
+        <v>1841</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>1841</v>
+        <v>1642</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>1642</v>
+        <v>1601</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>1601</v>
+        <v>1445</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>1445</v>
+        <v>1492</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>1492</v>
+        <v>1256</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>1256</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,80 +6594,80 @@
       <c r="AC36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD36" s="13" t="s">
-        <v>58</v>
+      <c r="AD36" s="13" t="n">
+        <v>220</v>
       </c>
       <c r="AE36" s="13" t="n">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="AF36" s="13" t="n">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="AG36" s="13" t="n">
-        <v>413</v>
+        <v>304</v>
       </c>
       <c r="AH36" s="13" t="n">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="AI36" s="13" t="n">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AJ36" s="13" t="n">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="AK36" s="13" t="n">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="AL36" s="13" t="n">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="AM36" s="13" t="n">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="AN36" s="13" t="n">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="AP36" s="13" t="n">
+        <v>252</v>
+      </c>
+      <c r="AQ36" s="13" t="n">
+        <v>314</v>
+      </c>
+      <c r="AR36" s="13" t="n">
+        <v>315</v>
+      </c>
+      <c r="AS36" s="13" t="n">
+        <v>235</v>
+      </c>
+      <c r="AT36" s="13" t="n">
+        <v>390</v>
+      </c>
+      <c r="AU36" s="13" t="n">
+        <v>426</v>
+      </c>
+      <c r="AV36" s="13" t="n">
+        <v>273</v>
+      </c>
+      <c r="AW36" s="13" t="n">
+        <v>308</v>
+      </c>
+      <c r="AX36" s="13" t="n">
         <v>274</v>
       </c>
-      <c r="AQ36" s="13" t="n">
-        <v>252</v>
-      </c>
-      <c r="AR36" s="13" t="n">
-        <v>314</v>
-      </c>
-      <c r="AS36" s="13" t="n">
-        <v>315</v>
-      </c>
-      <c r="AT36" s="13" t="n">
-        <v>235</v>
-      </c>
-      <c r="AU36" s="13" t="n">
-        <v>390</v>
-      </c>
-      <c r="AV36" s="13" t="n">
-        <v>426</v>
-      </c>
-      <c r="AW36" s="13" t="n">
-        <v>273</v>
-      </c>
-      <c r="AX36" s="13" t="n">
-        <v>308</v>
-      </c>
       <c r="AY36" s="13" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>365</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,80 +6753,80 @@
       <c r="AC37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD37" s="16" t="s">
-        <v>58</v>
+      <c r="AD37" s="16" t="n">
+        <v>130</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="AF37" s="16" t="n">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="AG37" s="16" t="n">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="AH37" s="16" t="n">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>267</v>
+        <v>550</v>
       </c>
       <c r="AJ37" s="16" t="n">
-        <v>550</v>
+        <v>191</v>
       </c>
       <c r="AK37" s="16" t="n">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="AL37" s="16" t="n">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="AM37" s="16" t="n">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>495</v>
+        <v>364</v>
       </c>
       <c r="AO37" s="16" t="n">
-        <v>364</v>
+        <v>237</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>193</v>
+        <v>507</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>507</v>
+        <v>291</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>227</v>
+        <v>373</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>270</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,80 +6912,80 @@
       <c r="AC38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD38" s="13" t="s">
-        <v>58</v>
+      <c r="AD38" s="13" t="n">
+        <v>67</v>
       </c>
       <c r="AE38" s="13" t="n">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="AF38" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG38" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AH38" s="13" t="n">
+        <v>141</v>
+      </c>
+      <c r="AI38" s="13" t="n">
+        <v>215</v>
+      </c>
+      <c r="AJ38" s="13" t="n">
         <v>133</v>
       </c>
-      <c r="AG38" s="13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH38" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="AI38" s="13" t="n">
-        <v>141</v>
-      </c>
-      <c r="AJ38" s="13" t="n">
-        <v>215</v>
-      </c>
       <c r="AK38" s="13" t="n">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="AL38" s="13" t="n">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="AM38" s="13" t="n">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="AN38" s="13" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AP38" s="13" t="n">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="AQ38" s="13" t="n">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>297</v>
+        <v>156</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="AT38" s="13" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="AU38" s="13" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="AX38" s="13" t="n">
+        <v>197</v>
+      </c>
+      <c r="AY38" s="13" t="n">
+        <v>179</v>
+      </c>
+      <c r="AZ38" s="13" t="n">
         <v>169</v>
       </c>
-      <c r="AY38" s="13" t="n">
-        <v>197</v>
-      </c>
-      <c r="AZ38" s="13" t="n">
-        <v>179</v>
-      </c>
       <c r="BA38" s="13" t="n">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,79 +7070,79 @@
         <v>0</v>
       </c>
       <c r="AD39" s="18" t="n">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="AE39" s="18" t="n">
-        <v>1692</v>
+        <v>1880</v>
       </c>
       <c r="AF39" s="18" t="n">
-        <v>1880</v>
+        <v>2019</v>
       </c>
       <c r="AG39" s="18" t="n">
-        <v>2019</v>
+        <v>1886</v>
       </c>
       <c r="AH39" s="18" t="n">
-        <v>1886</v>
+        <v>2286</v>
       </c>
       <c r="AI39" s="18" t="n">
-        <v>2286</v>
+        <v>2446</v>
       </c>
       <c r="AJ39" s="18" t="n">
-        <v>2446</v>
+        <v>1812</v>
       </c>
       <c r="AK39" s="18" t="n">
-        <v>1812</v>
+        <v>2509</v>
       </c>
       <c r="AL39" s="18" t="n">
-        <v>2509</v>
+        <v>2769</v>
       </c>
       <c r="AM39" s="18" t="n">
-        <v>2769</v>
+        <v>2759</v>
       </c>
       <c r="AN39" s="18" t="n">
-        <v>2759</v>
+        <v>2705</v>
       </c>
       <c r="AO39" s="18" t="n">
-        <v>2705</v>
+        <v>2359</v>
       </c>
       <c r="AP39" s="18" t="n">
-        <v>2359</v>
+        <v>1856</v>
       </c>
       <c r="AQ39" s="18" t="n">
-        <v>1856</v>
+        <v>2937</v>
       </c>
       <c r="AR39" s="18" t="n">
-        <v>2937</v>
+        <v>2805</v>
       </c>
       <c r="AS39" s="18" t="n">
-        <v>2805</v>
+        <v>2601</v>
       </c>
       <c r="AT39" s="18" t="n">
-        <v>2601</v>
+        <v>2090</v>
       </c>
       <c r="AU39" s="18" t="n">
-        <v>2090</v>
+        <v>2410</v>
       </c>
       <c r="AV39" s="18" t="n">
-        <v>2410</v>
+        <v>2684</v>
       </c>
       <c r="AW39" s="18" t="n">
-        <v>2684</v>
+        <v>2662</v>
       </c>
       <c r="AX39" s="18" t="n">
-        <v>2662</v>
+        <v>2299</v>
       </c>
       <c r="AY39" s="18" t="n">
-        <v>2299</v>
+        <v>2269</v>
       </c>
       <c r="AZ39" s="18" t="n">
-        <v>2269</v>
+        <v>2369</v>
       </c>
       <c r="BA39" s="18" t="n">
-        <v>2369</v>
+        <v>2003</v>
       </c>
       <c r="BB39" s="18" t="n">
-        <v>2003</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,41 +7324,41 @@
       <c r="AP41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ41" s="13" t="s">
-        <v>58</v>
+      <c r="AQ41" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="AR41" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AS41" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT41" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="AU41" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB41" s="13" t="n">
         <v>129</v>
+      </c>
+      <c r="BB41" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,47 +7477,47 @@
       <c r="AN42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO42" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP42" s="16" t="n">
+      <c r="AO42" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AQ42" s="16" t="s">
-        <v>58</v>
+      <c r="AP42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ42" s="16" t="n">
+        <v>16</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>57</v>
-      </c>
-      <c r="BB42" s="16" t="n">
         <v>96</v>
+      </c>
+      <c r="BB42" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,20 +7654,20 @@
       <c r="AT43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU43" s="13" t="s">
-        <v>58</v>
+      <c r="AU43" s="13" t="n">
+        <v>68</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="13" t="n">
         <v>0</v>
@@ -7675,8 +7675,8 @@
       <c r="BA43" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB43" s="13" t="n">
-        <v>0</v>
+      <c r="BB43" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,20 +7804,20 @@
       <c r="AQ44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="16" t="s">
-        <v>58</v>
+      <c r="AR44" s="16" t="n">
+        <v>27</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="16" t="n">
         <v>0</v>
@@ -7834,8 +7834,8 @@
       <c r="BA44" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB44" s="16" t="n">
-        <v>0</v>
+      <c r="BB44" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7954,38 +7954,38 @@
       <c r="AN45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP45" s="13" t="n">
+      <c r="AO45" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="AQ45" s="13" t="s">
-        <v>58</v>
+      <c r="AP45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ45" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU45" s="13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV45" s="13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX45" s="13" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AY45" s="13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="13" t="n">
         <v>0</v>
@@ -7993,8 +7993,8 @@
       <c r="BA45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB45" s="13" t="n">
-        <v>0</v>
+      <c r="BB45" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,46 +8112,46 @@
         <v>0</v>
       </c>
       <c r="AO46" s="18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP46" s="18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AR46" s="18" t="n">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="AS46" s="18" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="18" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AU46" s="18" t="n">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="AV46" s="18" t="n">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="AW46" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AX46" s="18" t="n">
+        <v>192</v>
+      </c>
+      <c r="AY46" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="AX46" s="18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY46" s="18" t="n">
-        <v>192</v>
-      </c>
       <c r="AZ46" s="18" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="BA46" s="18" t="n">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="BB46" s="18" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8451,8 +8451,8 @@
       <c r="AC49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD49" s="18" t="s">
-        <v>58</v>
+      <c r="AD49" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AE49" s="18" t="n">
         <v>0</v>
@@ -8832,21 +8832,21 @@
       <c r="AE52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG52" s="16" t="n">
+      <c r="AF52" s="16" t="n">
         <v>-17</v>
       </c>
-      <c r="AH52" s="16" t="s">
-        <v>58</v>
+      <c r="AG52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH52" s="16" t="n">
+        <v>-49</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>-49</v>
-      </c>
-      <c r="AJ52" s="16" t="n">
         <v>-39</v>
       </c>
+      <c r="AJ52" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AK52" s="16" t="s">
         <v>58</v>
       </c>
@@ -8871,35 +8871,35 @@
       <c r="AR52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AS52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT52" s="16" t="n">
+      <c r="AS52" s="16" t="n">
         <v>-16</v>
       </c>
-      <c r="AU52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV52" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="16" t="s">
-        <v>58</v>
+      <c r="AT52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW52" s="16" t="n">
+        <v>-10</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AZ52" s="16" t="n">
-        <v>0</v>
+      <c r="AZ52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BA52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BB52" s="16" t="s">
-        <v>58</v>
+      <c r="BB52" s="16" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8994,12 +8994,12 @@
       <c r="AF53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH53" s="13" t="n">
+      <c r="AG53" s="13" t="n">
         <v>-1</v>
       </c>
+      <c r="AH53" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI53" s="13" t="s">
         <v>58</v>
       </c>
@@ -9039,14 +9039,14 @@
       <c r="AU53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV53" s="13" t="s">
-        <v>58</v>
+      <c r="AV53" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX53" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY53" s="13" t="s">
         <v>58</v>
@@ -9144,23 +9144,23 @@
       <c r="AC54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD54" s="16" t="s">
-        <v>58</v>
+      <c r="AD54" s="16" t="n">
+        <v>-19</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AI54" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AJ54" s="16" t="s">
         <v>58</v>
@@ -9186,12 +9186,12 @@
       <c r="AQ54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="16" t="n">
+      <c r="AR54" s="16" t="n">
         <v>-4</v>
       </c>
+      <c r="AS54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AT54" s="16" t="s">
         <v>58</v>
       </c>
@@ -9207,11 +9207,11 @@
       <c r="AX54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ54" s="16" t="n">
-        <v>0</v>
+      <c r="AY54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BA54" s="16" t="s">
         <v>58</v>
@@ -9315,68 +9315,68 @@
       <c r="AG55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI55" s="13" t="n">
+      <c r="AH55" s="13" t="n">
         <v>-4</v>
       </c>
+      <c r="AI55" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ55" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AK55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM55" s="13" t="n">
+      <c r="AL55" s="13" t="n">
         <v>-2</v>
       </c>
+      <c r="AM55" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP55" s="13" t="n">
+      <c r="AO55" s="13" t="n">
         <v>-4</v>
       </c>
+      <c r="AP55" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ55" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AR55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS55" s="13" t="s">
-        <v>58</v>
+      <c r="AS55" s="13" t="n">
+        <v>-4</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="AU55" s="13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AV55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AV55" s="13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AW55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ55" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA55" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BB55" s="13" t="s">
-        <v>58</v>
+      <c r="BA55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB55" s="13" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9460,80 +9460,80 @@
       <c r="AC56" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD56" s="18" t="s">
-        <v>58</v>
+      <c r="AD56" s="18" t="n">
+        <v>-19</v>
       </c>
       <c r="AE56" s="18" t="n">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="AF56" s="18" t="n">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="AG56" s="18" t="n">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="AH56" s="18" t="n">
-        <v>-11</v>
+        <v>-53</v>
       </c>
       <c r="AI56" s="18" t="n">
-        <v>-53</v>
+        <v>-39</v>
       </c>
       <c r="AJ56" s="18" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AL56" s="18" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AP56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AS56" s="18" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AT56" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AU56" s="18" t="n">
         <v>-2</v>
       </c>
-      <c r="AN56" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AQ56" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="18" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AT56" s="18" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AU56" s="18" t="n">
+      <c r="AV56" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="AV56" s="18" t="n">
-        <v>-2</v>
-      </c>
       <c r="AW56" s="18" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AX56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="AX56" s="18" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AY56" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="BA56" s="18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="18" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9618,79 +9618,79 @@
         <v>0</v>
       </c>
       <c r="AD57" s="20" t="n">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="AE57" s="20" t="n">
-        <v>1673</v>
+        <v>1875</v>
       </c>
       <c r="AF57" s="20" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AG57" s="20" t="n">
         <v>1875</v>
       </c>
-      <c r="AG57" s="20" t="n">
-        <v>2001</v>
-      </c>
       <c r="AH57" s="20" t="n">
-        <v>1875</v>
+        <v>2233</v>
       </c>
       <c r="AI57" s="20" t="n">
-        <v>2233</v>
+        <v>2407</v>
       </c>
       <c r="AJ57" s="20" t="n">
-        <v>2407</v>
+        <v>1812</v>
       </c>
       <c r="AK57" s="20" t="n">
-        <v>1812</v>
+        <v>2509</v>
       </c>
       <c r="AL57" s="20" t="n">
-        <v>2509</v>
+        <v>2767</v>
       </c>
       <c r="AM57" s="20" t="n">
-        <v>2767</v>
+        <v>2759</v>
       </c>
       <c r="AN57" s="20" t="n">
-        <v>2759</v>
+        <v>2705</v>
       </c>
       <c r="AO57" s="20" t="n">
-        <v>2705</v>
+        <v>2370</v>
       </c>
       <c r="AP57" s="20" t="n">
-        <v>2370</v>
+        <v>1856</v>
       </c>
       <c r="AQ57" s="20" t="n">
-        <v>1856</v>
+        <v>2961</v>
       </c>
       <c r="AR57" s="20" t="n">
-        <v>2961</v>
+        <v>2995</v>
       </c>
       <c r="AS57" s="20" t="n">
-        <v>2995</v>
+        <v>2581</v>
       </c>
       <c r="AT57" s="20" t="n">
-        <v>2581</v>
+        <v>2162</v>
       </c>
       <c r="AU57" s="20" t="n">
-        <v>2162</v>
+        <v>2622</v>
       </c>
       <c r="AV57" s="20" t="n">
-        <v>2622</v>
+        <v>2718</v>
       </c>
       <c r="AW57" s="20" t="n">
-        <v>2718</v>
+        <v>2693</v>
       </c>
       <c r="AX57" s="20" t="n">
-        <v>2693</v>
+        <v>2491</v>
       </c>
       <c r="AY57" s="20" t="n">
-        <v>2491</v>
+        <v>2304</v>
       </c>
       <c r="AZ57" s="20" t="n">
-        <v>2304</v>
+        <v>2437</v>
       </c>
       <c r="BA57" s="20" t="n">
-        <v>2437</v>
+        <v>2228</v>
       </c>
       <c r="BB57" s="20" t="n">
-        <v>2228</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10243,35 +10243,35 @@
       <c r="AN64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP64" s="13" t="n">
+      <c r="AO64" s="13" t="n">
         <v>543</v>
       </c>
-      <c r="AQ64" s="13" t="s">
-        <v>58</v>
+      <c r="AP64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>250</v>
+        <v>1719</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>0</v>
+        <v>23418</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>23418</v>
+        <v>97795</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>97795</v>
+        <v>153420</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>153420</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="13" t="n">
         <v>0</v>
@@ -10369,80 +10369,80 @@
       <c r="AC65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD65" s="16" t="s">
-        <v>58</v>
+      <c r="AD65" s="16" t="n">
+        <v>736688</v>
       </c>
       <c r="AE65" s="16" t="n">
-        <v>736688</v>
+        <v>738597</v>
       </c>
       <c r="AF65" s="16" t="n">
-        <v>738597</v>
+        <v>692457</v>
       </c>
       <c r="AG65" s="16" t="n">
-        <v>692457</v>
+        <v>655805</v>
       </c>
       <c r="AH65" s="16" t="n">
-        <v>655805</v>
+        <v>863957</v>
       </c>
       <c r="AI65" s="16" t="n">
-        <v>863957</v>
+        <v>797093</v>
       </c>
       <c r="AJ65" s="16" t="n">
-        <v>797093</v>
+        <v>721306</v>
       </c>
       <c r="AK65" s="16" t="n">
-        <v>721306</v>
+        <v>857805</v>
       </c>
       <c r="AL65" s="16" t="n">
-        <v>857805</v>
+        <v>1070846</v>
       </c>
       <c r="AM65" s="16" t="n">
-        <v>1070846</v>
+        <v>946960</v>
       </c>
       <c r="AN65" s="16" t="n">
-        <v>946960</v>
+        <v>1050579</v>
       </c>
       <c r="AO65" s="16" t="n">
-        <v>1050579</v>
+        <v>951357</v>
       </c>
       <c r="AP65" s="16" t="n">
-        <v>951357</v>
+        <v>651392</v>
       </c>
       <c r="AQ65" s="16" t="n">
-        <v>651392</v>
+        <v>1148782</v>
       </c>
       <c r="AR65" s="16" t="n">
-        <v>1148782</v>
+        <v>1138913</v>
       </c>
       <c r="AS65" s="16" t="n">
-        <v>1138913</v>
+        <v>1246293</v>
       </c>
       <c r="AT65" s="16" t="n">
-        <v>1246293</v>
+        <v>791494</v>
       </c>
       <c r="AU65" s="16" t="n">
-        <v>791494</v>
+        <v>1298831</v>
       </c>
       <c r="AV65" s="16" t="n">
-        <v>1298831</v>
+        <v>1303795</v>
       </c>
       <c r="AW65" s="16" t="n">
-        <v>1303795</v>
+        <v>1164365</v>
       </c>
       <c r="AX65" s="16" t="n">
-        <v>1164365</v>
+        <v>1287157</v>
       </c>
       <c r="AY65" s="16" t="n">
-        <v>1287157</v>
+        <v>1049760</v>
       </c>
       <c r="AZ65" s="16" t="n">
-        <v>1049760</v>
+        <v>1079302</v>
       </c>
       <c r="BA65" s="16" t="n">
-        <v>1079302</v>
+        <v>936425</v>
       </c>
       <c r="BB65" s="16" t="n">
-        <v>936425</v>
+        <v>1102022</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10528,80 +10528,80 @@
       <c r="AC66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD66" s="13" t="s">
-        <v>58</v>
+      <c r="AD66" s="13" t="n">
+        <v>129795</v>
       </c>
       <c r="AE66" s="13" t="n">
-        <v>129795</v>
+        <v>223254</v>
       </c>
       <c r="AF66" s="13" t="n">
-        <v>223254</v>
+        <v>262005</v>
       </c>
       <c r="AG66" s="13" t="n">
-        <v>262005</v>
+        <v>177138</v>
       </c>
       <c r="AH66" s="13" t="n">
-        <v>177138</v>
+        <v>160027</v>
       </c>
       <c r="AI66" s="13" t="n">
-        <v>160027</v>
+        <v>151050</v>
       </c>
       <c r="AJ66" s="13" t="n">
-        <v>151050</v>
+        <v>139315</v>
       </c>
       <c r="AK66" s="13" t="n">
-        <v>139315</v>
+        <v>192822</v>
       </c>
       <c r="AL66" s="13" t="n">
-        <v>192822</v>
+        <v>162684</v>
       </c>
       <c r="AM66" s="13" t="n">
-        <v>162684</v>
+        <v>393042</v>
       </c>
       <c r="AN66" s="13" t="n">
-        <v>393042</v>
+        <v>274605</v>
       </c>
       <c r="AO66" s="13" t="n">
-        <v>274605</v>
+        <v>207194</v>
       </c>
       <c r="AP66" s="13" t="n">
-        <v>207194</v>
+        <v>196161</v>
       </c>
       <c r="AQ66" s="13" t="n">
-        <v>196161</v>
+        <v>237024</v>
       </c>
       <c r="AR66" s="13" t="n">
-        <v>237024</v>
+        <v>246749</v>
       </c>
       <c r="AS66" s="13" t="n">
-        <v>246749</v>
+        <v>186074</v>
       </c>
       <c r="AT66" s="13" t="n">
-        <v>186074</v>
+        <v>327156</v>
       </c>
       <c r="AU66" s="13" t="n">
-        <v>327156</v>
+        <v>389901</v>
       </c>
       <c r="AV66" s="13" t="n">
-        <v>389901</v>
+        <v>239781</v>
       </c>
       <c r="AW66" s="13" t="n">
-        <v>239781</v>
+        <v>287601</v>
       </c>
       <c r="AX66" s="13" t="n">
-        <v>287601</v>
+        <v>252840</v>
       </c>
       <c r="AY66" s="13" t="n">
-        <v>252840</v>
+        <v>251437</v>
       </c>
       <c r="AZ66" s="13" t="n">
-        <v>251437</v>
+        <v>359879</v>
       </c>
       <c r="BA66" s="13" t="n">
-        <v>359879</v>
+        <v>394134</v>
       </c>
       <c r="BB66" s="13" t="n">
-        <v>394134</v>
+        <v>218958</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10687,80 +10687,80 @@
       <c r="AC67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD67" s="16" t="s">
-        <v>58</v>
+      <c r="AD67" s="16" t="n">
+        <v>72515</v>
       </c>
       <c r="AE67" s="16" t="n">
-        <v>72515</v>
+        <v>104015</v>
       </c>
       <c r="AF67" s="16" t="n">
-        <v>104015</v>
+        <v>168122</v>
       </c>
       <c r="AG67" s="16" t="n">
-        <v>168122</v>
+        <v>172882</v>
       </c>
       <c r="AH67" s="16" t="n">
-        <v>172882</v>
+        <v>139314</v>
       </c>
       <c r="AI67" s="16" t="n">
-        <v>139314</v>
+        <v>304424</v>
       </c>
       <c r="AJ67" s="16" t="n">
-        <v>304424</v>
+        <v>105707</v>
       </c>
       <c r="AK67" s="16" t="n">
-        <v>105707</v>
+        <v>230849</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>230849</v>
+        <v>236408</v>
       </c>
       <c r="AM67" s="16" t="n">
-        <v>236408</v>
+        <v>311207</v>
       </c>
       <c r="AN67" s="16" t="n">
-        <v>311207</v>
+        <v>230217</v>
       </c>
       <c r="AO67" s="16" t="n">
-        <v>230217</v>
+        <v>237837</v>
       </c>
       <c r="AP67" s="16" t="n">
-        <v>237837</v>
+        <v>166812</v>
       </c>
       <c r="AQ67" s="16" t="n">
-        <v>166812</v>
+        <v>129350</v>
       </c>
       <c r="AR67" s="16" t="n">
-        <v>129350</v>
+        <v>363896</v>
       </c>
       <c r="AS67" s="16" t="n">
-        <v>363896</v>
+        <v>208671</v>
       </c>
       <c r="AT67" s="16" t="n">
-        <v>208671</v>
+        <v>246905</v>
       </c>
       <c r="AU67" s="16" t="n">
-        <v>246905</v>
+        <v>244862</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>244862</v>
+        <v>212591</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>212591</v>
+        <v>260553</v>
       </c>
       <c r="AX67" s="16" t="n">
-        <v>260553</v>
+        <v>184864</v>
       </c>
       <c r="AY67" s="16" t="n">
-        <v>184864</v>
+        <v>327008</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>327008</v>
+        <v>322541</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>322541</v>
+        <v>234614</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>234614</v>
+        <v>130007</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10846,80 +10846,80 @@
       <c r="AC68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD68" s="13" t="s">
-        <v>58</v>
+      <c r="AD68" s="13" t="n">
+        <v>31449</v>
       </c>
       <c r="AE68" s="13" t="n">
-        <v>31449</v>
+        <v>63430</v>
       </c>
       <c r="AF68" s="13" t="n">
-        <v>63430</v>
+        <v>48907</v>
       </c>
       <c r="AG68" s="13" t="n">
-        <v>48907</v>
+        <v>48217</v>
       </c>
       <c r="AH68" s="13" t="n">
-        <v>48217</v>
+        <v>66774</v>
       </c>
       <c r="AI68" s="13" t="n">
-        <v>66774</v>
+        <v>103732</v>
       </c>
       <c r="AJ68" s="13" t="n">
-        <v>103732</v>
+        <v>63874</v>
       </c>
       <c r="AK68" s="13" t="n">
-        <v>63874</v>
+        <v>126152</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>126152</v>
+        <v>108545</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>108545</v>
+        <v>60838</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>60838</v>
+        <v>64510</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>64510</v>
+        <v>60816</v>
       </c>
       <c r="AP68" s="13" t="n">
-        <v>60816</v>
+        <v>89761</v>
       </c>
       <c r="AQ68" s="13" t="n">
-        <v>89761</v>
+        <v>143390</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>143390</v>
+        <v>75774</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>75774</v>
+        <v>107721</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>107721</v>
+        <v>125885</v>
       </c>
       <c r="AU68" s="13" t="n">
-        <v>125885</v>
+        <v>100357</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>100357</v>
+        <v>93364</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>93364</v>
+        <v>139491</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>139491</v>
+        <v>143647</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>143647</v>
+        <v>130552</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>130552</v>
+        <v>131277</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>131277</v>
+        <v>106707</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>106707</v>
+        <v>130196</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11004,79 +11004,79 @@
         <v>0</v>
       </c>
       <c r="AD69" s="18" t="n">
-        <v>0</v>
+        <v>970447</v>
       </c>
       <c r="AE69" s="18" t="n">
-        <v>970447</v>
+        <v>1129296</v>
       </c>
       <c r="AF69" s="18" t="n">
-        <v>1129296</v>
+        <v>1171491</v>
       </c>
       <c r="AG69" s="18" t="n">
-        <v>1171491</v>
+        <v>1054042</v>
       </c>
       <c r="AH69" s="18" t="n">
-        <v>1054042</v>
+        <v>1230072</v>
       </c>
       <c r="AI69" s="18" t="n">
-        <v>1230072</v>
+        <v>1356299</v>
       </c>
       <c r="AJ69" s="18" t="n">
-        <v>1356299</v>
+        <v>1030202</v>
       </c>
       <c r="AK69" s="18" t="n">
-        <v>1030202</v>
+        <v>1407628</v>
       </c>
       <c r="AL69" s="18" t="n">
-        <v>1407628</v>
+        <v>1578483</v>
       </c>
       <c r="AM69" s="18" t="n">
-        <v>1578483</v>
+        <v>1712047</v>
       </c>
       <c r="AN69" s="18" t="n">
-        <v>1712047</v>
+        <v>1619911</v>
       </c>
       <c r="AO69" s="18" t="n">
-        <v>1619911</v>
+        <v>1457747</v>
       </c>
       <c r="AP69" s="18" t="n">
-        <v>1457747</v>
+        <v>1104126</v>
       </c>
       <c r="AQ69" s="18" t="n">
-        <v>1104126</v>
+        <v>1658546</v>
       </c>
       <c r="AR69" s="18" t="n">
-        <v>1658546</v>
+        <v>1825582</v>
       </c>
       <c r="AS69" s="18" t="n">
-        <v>1825582</v>
+        <v>1750478</v>
       </c>
       <c r="AT69" s="18" t="n">
-        <v>1750478</v>
+        <v>1491440</v>
       </c>
       <c r="AU69" s="18" t="n">
-        <v>1491440</v>
+        <v>2057369</v>
       </c>
       <c r="AV69" s="18" t="n">
-        <v>2057369</v>
+        <v>1947326</v>
       </c>
       <c r="AW69" s="18" t="n">
-        <v>1947326</v>
+        <v>2005430</v>
       </c>
       <c r="AX69" s="18" t="n">
-        <v>2005430</v>
+        <v>1868508</v>
       </c>
       <c r="AY69" s="18" t="n">
-        <v>1868508</v>
+        <v>1758757</v>
       </c>
       <c r="AZ69" s="18" t="n">
-        <v>1758757</v>
+        <v>1892999</v>
       </c>
       <c r="BA69" s="18" t="n">
-        <v>1892999</v>
+        <v>1671880</v>
       </c>
       <c r="BB69" s="18" t="n">
-        <v>1671880</v>
+        <v>1581183</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11258,41 +11258,41 @@
       <c r="AP71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ71" s="13" t="s">
-        <v>58</v>
+      <c r="AQ71" s="13" t="n">
+        <v>732</v>
       </c>
       <c r="AR71" s="13" t="n">
-        <v>732</v>
+        <v>1113</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>953</v>
+        <v>0</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>0</v>
+        <v>8865</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>8865</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>0</v>
+        <v>53662</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>53662</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>0</v>
+        <v>8735</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>8735</v>
-      </c>
-      <c r="BB71" s="13" t="n">
         <v>136662</v>
+      </c>
+      <c r="BB71" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11411,47 +11411,47 @@
       <c r="AN72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO72" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP72" s="16" t="n">
+      <c r="AO72" s="16" t="n">
         <v>738</v>
       </c>
-      <c r="AQ72" s="16" t="s">
-        <v>58</v>
+      <c r="AP72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ72" s="16" t="n">
+        <v>9850</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>9850</v>
+        <v>76662</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>76662</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>0</v>
+        <v>48723</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>48723</v>
+        <v>77810</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>77810</v>
+        <v>18360</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>18360</v>
+        <v>17330</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>17330</v>
+        <v>62351</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>62351</v>
+        <v>28029</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>28029</v>
+        <v>46471</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>46471</v>
-      </c>
-      <c r="BB72" s="16" t="n">
         <v>91790</v>
+      </c>
+      <c r="BB72" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11588,20 +11588,20 @@
       <c r="AT73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU73" s="13" t="s">
-        <v>58</v>
+      <c r="AU73" s="13" t="n">
+        <v>48283</v>
       </c>
       <c r="AV73" s="13" t="n">
-        <v>48283</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="13" t="n">
-        <v>0</v>
+        <v>12944</v>
       </c>
       <c r="AX73" s="13" t="n">
-        <v>12944</v>
+        <v>22745</v>
       </c>
       <c r="AY73" s="13" t="n">
-        <v>22745</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="13" t="n">
         <v>0</v>
@@ -11609,8 +11609,8 @@
       <c r="BA73" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB73" s="13" t="n">
-        <v>0</v>
+      <c r="BB73" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11738,20 +11738,20 @@
       <c r="AQ74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR74" s="16" t="s">
-        <v>58</v>
+      <c r="AR74" s="16" t="n">
+        <v>17720</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>17720</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU74" s="16" t="n">
-        <v>0</v>
+        <v>4635</v>
       </c>
       <c r="AV74" s="16" t="n">
-        <v>4635</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="16" t="n">
         <v>0</v>
@@ -11768,8 +11768,8 @@
       <c r="BA74" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB74" s="16" t="n">
-        <v>0</v>
+      <c r="BB74" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11888,38 +11888,38 @@
       <c r="AN75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP75" s="13" t="n">
+      <c r="AO75" s="13" t="n">
         <v>8555</v>
       </c>
-      <c r="AQ75" s="13" t="s">
-        <v>58</v>
+      <c r="AP75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ75" s="13" t="n">
+        <v>4235</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>4235</v>
+        <v>22555</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>22555</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>0</v>
+        <v>17477</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>17477</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>0</v>
+        <v>4210</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>4210</v>
+        <v>13580</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>13580</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="13" t="n">
         <v>0</v>
@@ -11927,8 +11927,8 @@
       <c r="BA75" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB75" s="13" t="n">
-        <v>0</v>
+      <c r="BB75" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12046,46 +12046,46 @@
         <v>0</v>
       </c>
       <c r="AO76" s="18" t="n">
-        <v>0</v>
+        <v>9293</v>
       </c>
       <c r="AP76" s="18" t="n">
-        <v>9293</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="18" t="n">
-        <v>0</v>
+        <v>14817</v>
       </c>
       <c r="AR76" s="18" t="n">
-        <v>14817</v>
+        <v>118050</v>
       </c>
       <c r="AS76" s="18" t="n">
-        <v>118050</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="18" t="n">
-        <v>0</v>
+        <v>49676</v>
       </c>
       <c r="AU76" s="18" t="n">
-        <v>49676</v>
+        <v>148205</v>
       </c>
       <c r="AV76" s="18" t="n">
-        <v>148205</v>
+        <v>27225</v>
       </c>
       <c r="AW76" s="18" t="n">
-        <v>27225</v>
+        <v>34484</v>
       </c>
       <c r="AX76" s="18" t="n">
-        <v>34484</v>
+        <v>152338</v>
       </c>
       <c r="AY76" s="18" t="n">
-        <v>152338</v>
+        <v>28029</v>
       </c>
       <c r="AZ76" s="18" t="n">
-        <v>28029</v>
+        <v>55206</v>
       </c>
       <c r="BA76" s="18" t="n">
-        <v>55206</v>
+        <v>228452</v>
       </c>
       <c r="BB76" s="18" t="n">
-        <v>228452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12261,17 +12261,17 @@
       <c r="AN78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP78" s="13" t="n">
+      <c r="AO78" s="13" t="n">
         <v>1017257</v>
       </c>
+      <c r="AP78" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
+      <c r="AR78" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS78" s="13" t="n">
         <v>0</v>
@@ -12291,17 +12291,17 @@
       <c r="AX78" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY78" s="13" t="n">
-        <v>0</v>
+      <c r="AY78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB78" s="13" t="n">
-        <v>0</v>
+      <c r="BA78" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12387,8 +12387,8 @@
       <c r="AC79" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD79" s="18" t="s">
-        <v>58</v>
+      <c r="AD79" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="AE79" s="21" t="n">
         <v>0</v>
@@ -12421,10 +12421,10 @@
         <v>0</v>
       </c>
       <c r="AO79" s="21" t="n">
-        <v>0</v>
+        <v>1017257</v>
       </c>
       <c r="AP79" s="21" t="n">
-        <v>1017257</v>
+        <v>0</v>
       </c>
       <c r="AQ79" s="21" t="n">
         <v>0</v>
@@ -12669,14 +12669,14 @@
       <c r="AY81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ81" s="13" t="s">
-        <v>58</v>
+      <c r="AZ81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA81" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB81" s="13" t="n">
-        <v>0</v>
+      <c r="BB81" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12768,20 +12768,20 @@
       <c r="AE82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF82" s="16" t="s">
-        <v>58</v>
+      <c r="AF82" s="16" t="n">
+        <v>-10941</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>-10941</v>
+        <v>0</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>0</v>
+        <v>-29518</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>-29518</v>
+        <v>-24238</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AK82" s="16" t="n">
         <v>0</v>
@@ -12798,20 +12798,20 @@
       <c r="AO82" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP82" s="16" t="n">
-        <v>0</v>
+      <c r="AP82" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR82" s="16" t="s">
-        <v>58</v>
+      <c r="AR82" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>0</v>
+        <v>-10666</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>-10666</v>
+        <v>0</v>
       </c>
       <c r="AU82" s="16" t="n">
         <v>0</v>
@@ -12820,10 +12820,10 @@
         <v>0</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>0</v>
+        <v>-1350</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>-1350</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="16" t="n">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12930,11 +12930,11 @@
       <c r="AF83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG83" s="13" t="s">
-        <v>58</v>
+      <c r="AG83" s="13" t="n">
+        <v>-177</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>-177</v>
+        <v>0</v>
       </c>
       <c r="AI83" s="13" t="n">
         <v>0</v>
@@ -12957,8 +12957,8 @@
       <c r="AO83" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP83" s="13" t="n">
-        <v>0</v>
+      <c r="AP83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ83" s="13" t="s">
         <v>58</v>
@@ -12969,17 +12969,17 @@
       <c r="AS83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT83" s="13" t="s">
-        <v>58</v>
+      <c r="AT83" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AU83" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AX83" s="13" t="n">
         <v>0</v>
@@ -12993,8 +12993,8 @@
       <c r="BA83" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB83" s="13" t="n">
-        <v>0</v>
+      <c r="BB83" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13080,20 +13080,20 @@
       <c r="AC84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD84" s="16" t="s">
-        <v>58</v>
+      <c r="AD84" s="16" t="n">
+        <v>-8492</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>-8492</v>
+        <v>-2601</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>-2601</v>
+        <v>-91</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>-91</v>
+        <v>-5950</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>-5950</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="16" t="n">
         <v>0</v>
@@ -13123,10 +13123,10 @@
         <v>0</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>0</v>
+        <v>-2190</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>-2190</v>
+        <v>0</v>
       </c>
       <c r="AT84" s="16" t="n">
         <v>0</v>
@@ -13152,8 +13152,8 @@
       <c r="BA84" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB84" s="16" t="n">
-        <v>0</v>
+      <c r="BB84" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13248,14 +13248,14 @@
       <c r="AF85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG85" s="13" t="s">
-        <v>58</v>
+      <c r="AG85" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>0</v>
+        <v>-2019</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>-2019</v>
+        <v>0</v>
       </c>
       <c r="AJ85" s="13" t="n">
         <v>0</v>
@@ -13264,37 +13264,37 @@
         <v>0</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AN85" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP85" s="13" t="n">
         <v>-2104</v>
       </c>
+      <c r="AP85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ85" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AR85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS85" s="13" t="s">
-        <v>58</v>
+      <c r="AS85" s="13" t="n">
+        <v>-2515</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>-2515</v>
+        <v>-391</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>-391</v>
+        <v>-1076</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>-1076</v>
+        <v>0</v>
       </c>
       <c r="AW85" s="13" t="n">
         <v>0</v>
@@ -13306,13 +13306,13 @@
         <v>0</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>0</v>
+        <v>-226</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>-226</v>
+        <v>0</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>0</v>
+        <v>-2692</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13398,80 +13398,80 @@
       <c r="AC86" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AD86" s="18" t="s">
-        <v>58</v>
+      <c r="AD86" s="21" t="n">
+        <v>-8492</v>
       </c>
       <c r="AE86" s="21" t="n">
-        <v>-8492</v>
+        <v>-2601</v>
       </c>
       <c r="AF86" s="21" t="n">
-        <v>-2601</v>
+        <v>-11032</v>
       </c>
       <c r="AG86" s="21" t="n">
-        <v>-11032</v>
+        <v>-6127</v>
       </c>
       <c r="AH86" s="21" t="n">
-        <v>-6127</v>
+        <v>-31537</v>
       </c>
       <c r="AI86" s="21" t="n">
-        <v>-31537</v>
+        <v>-24238</v>
       </c>
       <c r="AJ86" s="21" t="n">
-        <v>-24238</v>
+        <v>0</v>
       </c>
       <c r="AK86" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AL86" s="21" t="n">
-        <v>0</v>
+        <v>-1032</v>
       </c>
       <c r="AM86" s="21" t="n">
-        <v>-1032</v>
+        <v>0</v>
       </c>
       <c r="AN86" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AO86" s="21" t="n">
-        <v>0</v>
+        <v>-2104</v>
       </c>
       <c r="AP86" s="21" t="n">
-        <v>-2104</v>
+        <v>0</v>
       </c>
       <c r="AQ86" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AR86" s="21" t="n">
-        <v>0</v>
+        <v>-2190</v>
       </c>
       <c r="AS86" s="21" t="n">
-        <v>-2190</v>
+        <v>-13181</v>
       </c>
       <c r="AT86" s="21" t="n">
-        <v>-13181</v>
+        <v>-391</v>
       </c>
       <c r="AU86" s="21" t="n">
-        <v>-391</v>
+        <v>-1076</v>
       </c>
       <c r="AV86" s="21" t="n">
-        <v>-1076</v>
+        <v>-20</v>
       </c>
       <c r="AW86" s="21" t="n">
-        <v>-20</v>
+        <v>-1350</v>
       </c>
       <c r="AX86" s="21" t="n">
-        <v>-1350</v>
+        <v>0</v>
       </c>
       <c r="AY86" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AZ86" s="21" t="n">
-        <v>0</v>
+        <v>-226</v>
       </c>
       <c r="BA86" s="21" t="n">
-        <v>-226</v>
+        <v>0</v>
       </c>
       <c r="BB86" s="21" t="n">
-        <v>0</v>
+        <v>-2715</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13614,80 +13614,80 @@
       <c r="AC88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD88" s="13" t="s">
-        <v>58</v>
+      <c r="AD88" s="13" t="n">
+        <v>-1667</v>
       </c>
       <c r="AE88" s="13" t="n">
-        <v>-1667</v>
+        <v>-2094</v>
       </c>
       <c r="AF88" s="13" t="n">
-        <v>-2094</v>
+        <v>-4779</v>
       </c>
       <c r="AG88" s="13" t="n">
-        <v>-4779</v>
+        <v>-5947</v>
       </c>
       <c r="AH88" s="13" t="n">
-        <v>-5947</v>
+        <v>-27148</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>-27148</v>
+        <v>-54419</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>-54419</v>
+        <v>-45778</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>-45778</v>
+        <v>-10506</v>
       </c>
       <c r="AL88" s="13" t="n">
-        <v>-10506</v>
+        <v>-27326</v>
       </c>
       <c r="AM88" s="13" t="n">
-        <v>-27326</v>
+        <v>-66610</v>
       </c>
       <c r="AN88" s="13" t="n">
-        <v>-66610</v>
+        <v>-107832</v>
       </c>
       <c r="AO88" s="13" t="n">
-        <v>-107832</v>
+        <v>-92389</v>
       </c>
       <c r="AP88" s="13" t="n">
-        <v>-92389</v>
+        <v>-66891</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>-66891</v>
+        <v>-40112</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>-40112</v>
+        <v>-8036</v>
       </c>
       <c r="AS88" s="13" t="n">
-        <v>-8036</v>
+        <v>-8348</v>
       </c>
       <c r="AT88" s="13" t="n">
-        <v>-8348</v>
+        <v>-32421</v>
       </c>
       <c r="AU88" s="13" t="n">
-        <v>-32421</v>
+        <v>-50536</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>-50536</v>
+        <v>-29093</v>
       </c>
       <c r="AW88" s="13" t="n">
-        <v>-29093</v>
+        <v>-21147</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>-21147</v>
+        <v>-9379</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>-9379</v>
+        <v>-21304</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>-21304</v>
+        <v>-21177</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>-21177</v>
+        <v>-5699</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>-5699</v>
+        <v>-4315</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13772,79 +13772,79 @@
         <v>0</v>
       </c>
       <c r="AD89" s="21" t="n">
-        <v>0</v>
+        <v>960288</v>
       </c>
       <c r="AE89" s="21" t="n">
-        <v>960288</v>
+        <v>1124601</v>
       </c>
       <c r="AF89" s="21" t="n">
-        <v>1124601</v>
+        <v>1155680</v>
       </c>
       <c r="AG89" s="21" t="n">
-        <v>1155680</v>
+        <v>1041968</v>
       </c>
       <c r="AH89" s="21" t="n">
-        <v>1041968</v>
+        <v>1171387</v>
       </c>
       <c r="AI89" s="21" t="n">
-        <v>1171387</v>
+        <v>1277642</v>
       </c>
       <c r="AJ89" s="21" t="n">
-        <v>1277642</v>
+        <v>984424</v>
       </c>
       <c r="AK89" s="21" t="n">
-        <v>984424</v>
+        <v>1397122</v>
       </c>
       <c r="AL89" s="21" t="n">
-        <v>1397122</v>
+        <v>1550125</v>
       </c>
       <c r="AM89" s="21" t="n">
-        <v>1550125</v>
+        <v>1645437</v>
       </c>
       <c r="AN89" s="21" t="n">
-        <v>1645437</v>
+        <v>1512079</v>
       </c>
       <c r="AO89" s="21" t="n">
-        <v>1512079</v>
+        <v>2389804</v>
       </c>
       <c r="AP89" s="21" t="n">
-        <v>2389804</v>
+        <v>1037235</v>
       </c>
       <c r="AQ89" s="21" t="n">
-        <v>1037235</v>
+        <v>1633251</v>
       </c>
       <c r="AR89" s="21" t="n">
-        <v>1633251</v>
+        <v>1933406</v>
       </c>
       <c r="AS89" s="21" t="n">
-        <v>1933406</v>
+        <v>1728949</v>
       </c>
       <c r="AT89" s="21" t="n">
-        <v>1728949</v>
+        <v>1508304</v>
       </c>
       <c r="AU89" s="21" t="n">
-        <v>1508304</v>
+        <v>2153962</v>
       </c>
       <c r="AV89" s="21" t="n">
-        <v>2153962</v>
+        <v>1945438</v>
       </c>
       <c r="AW89" s="21" t="n">
-        <v>1945438</v>
+        <v>2017417</v>
       </c>
       <c r="AX89" s="21" t="n">
-        <v>2017417</v>
+        <v>2011467</v>
       </c>
       <c r="AY89" s="21" t="n">
-        <v>2011467</v>
+        <v>1765482</v>
       </c>
       <c r="AZ89" s="21" t="n">
-        <v>1765482</v>
+        <v>1926802</v>
       </c>
       <c r="BA89" s="21" t="n">
-        <v>1926802</v>
+        <v>1894633</v>
       </c>
       <c r="BB89" s="21" t="n">
-        <v>1894633</v>
+        <v>1574153</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14397,35 +14397,35 @@
       <c r="AN96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP96" s="13" t="n">
+      <c r="AO96" s="13" t="n">
         <v>543000000</v>
       </c>
+      <c r="AP96" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR96" s="13" t="s">
-        <v>58</v>
+      <c r="AR96" s="13" t="n">
+        <v>250000000</v>
       </c>
       <c r="AS96" s="13" t="n">
-        <v>250000000</v>
-      </c>
-      <c r="AT96" s="13" t="n">
         <v>859500000</v>
       </c>
-      <c r="AU96" s="13" t="s">
-        <v>58</v>
+      <c r="AT96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU96" s="13" t="n">
+        <v>755419355</v>
       </c>
       <c r="AV96" s="13" t="n">
-        <v>755419355</v>
+        <v>735300752</v>
       </c>
       <c r="AW96" s="13" t="n">
-        <v>735300752</v>
-      </c>
-      <c r="AX96" s="13" t="n">
         <v>752058824</v>
+      </c>
+      <c r="AX96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY96" s="13" t="s">
         <v>58</v>
@@ -14523,80 +14523,80 @@
       <c r="AC97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD97" s="16" t="s">
-        <v>58</v>
+      <c r="AD97" s="16" t="n">
+        <v>577794510</v>
       </c>
       <c r="AE97" s="16" t="n">
-        <v>577794510</v>
+        <v>588523506</v>
       </c>
       <c r="AF97" s="16" t="n">
-        <v>588523506</v>
+        <v>595918244</v>
       </c>
       <c r="AG97" s="16" t="n">
-        <v>595918244</v>
+        <v>578821712</v>
       </c>
       <c r="AH97" s="16" t="n">
-        <v>578821712</v>
+        <v>535621203</v>
       </c>
       <c r="AI97" s="16" t="n">
-        <v>535621203</v>
+        <v>555465505</v>
       </c>
       <c r="AJ97" s="16" t="n">
-        <v>555465505</v>
+        <v>565730196</v>
       </c>
       <c r="AK97" s="16" t="n">
-        <v>565730196</v>
+        <v>561390707</v>
       </c>
       <c r="AL97" s="16" t="n">
-        <v>561390707</v>
+        <v>561240042</v>
       </c>
       <c r="AM97" s="16" t="n">
-        <v>561240042</v>
+        <v>564338498</v>
       </c>
       <c r="AN97" s="16" t="n">
-        <v>564338498</v>
+        <v>566349865</v>
       </c>
       <c r="AO97" s="16" t="n">
-        <v>566349865</v>
+        <v>551511304</v>
       </c>
       <c r="AP97" s="16" t="n">
-        <v>551511304</v>
+        <v>550162162</v>
       </c>
       <c r="AQ97" s="16" t="n">
-        <v>550162162</v>
+        <v>538575715</v>
       </c>
       <c r="AR97" s="16" t="n">
-        <v>538575715</v>
+        <v>623720153</v>
       </c>
       <c r="AS97" s="16" t="n">
-        <v>623720153</v>
+        <v>667180407</v>
       </c>
       <c r="AT97" s="16" t="n">
-        <v>667180407</v>
+        <v>659578333</v>
       </c>
       <c r="AU97" s="16" t="n">
-        <v>659578333</v>
+        <v>891442004</v>
       </c>
       <c r="AV97" s="16" t="n">
-        <v>891442004</v>
+        <v>708199348</v>
       </c>
       <c r="AW97" s="16" t="n">
-        <v>708199348</v>
+        <v>709113886</v>
       </c>
       <c r="AX97" s="16" t="n">
-        <v>709113886</v>
+        <v>803970643</v>
       </c>
       <c r="AY97" s="16" t="n">
-        <v>803970643</v>
+        <v>726477509</v>
       </c>
       <c r="AZ97" s="16" t="n">
-        <v>726477509</v>
+        <v>723392761</v>
       </c>
       <c r="BA97" s="16" t="n">
-        <v>723392761</v>
+        <v>745561306</v>
       </c>
       <c r="BB97" s="16" t="n">
-        <v>745561306</v>
+        <v>822404478</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14682,80 +14682,80 @@
       <c r="AC98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD98" s="13" t="s">
-        <v>58</v>
+      <c r="AD98" s="13" t="n">
+        <v>589977273</v>
       </c>
       <c r="AE98" s="13" t="n">
-        <v>589977273</v>
+        <v>751696970</v>
       </c>
       <c r="AF98" s="13" t="n">
-        <v>751696970</v>
+        <v>634394673</v>
       </c>
       <c r="AG98" s="13" t="n">
-        <v>634394673</v>
+        <v>582690789</v>
       </c>
       <c r="AH98" s="13" t="n">
-        <v>582690789</v>
+        <v>603875472</v>
       </c>
       <c r="AI98" s="13" t="n">
-        <v>603875472</v>
+        <v>614024390</v>
       </c>
       <c r="AJ98" s="13" t="n">
-        <v>614024390</v>
+        <v>654061033</v>
       </c>
       <c r="AK98" s="13" t="n">
-        <v>654061033</v>
+        <v>628084691</v>
       </c>
       <c r="AL98" s="13" t="n">
-        <v>628084691</v>
+        <v>664016327</v>
       </c>
       <c r="AM98" s="13" t="n">
-        <v>664016327</v>
+        <v>854439130</v>
       </c>
       <c r="AN98" s="13" t="n">
-        <v>854439130</v>
+        <v>780127841</v>
       </c>
       <c r="AO98" s="13" t="n">
-        <v>780127841</v>
+        <v>756182482</v>
       </c>
       <c r="AP98" s="13" t="n">
-        <v>756182482</v>
+        <v>778416667</v>
       </c>
       <c r="AQ98" s="13" t="n">
-        <v>778416667</v>
+        <v>754853503</v>
       </c>
       <c r="AR98" s="13" t="n">
-        <v>754853503</v>
+        <v>783330159</v>
       </c>
       <c r="AS98" s="13" t="n">
-        <v>783330159</v>
+        <v>791804255</v>
       </c>
       <c r="AT98" s="13" t="n">
-        <v>791804255</v>
+        <v>838861538</v>
       </c>
       <c r="AU98" s="13" t="n">
-        <v>838861538</v>
+        <v>915260563</v>
       </c>
       <c r="AV98" s="13" t="n">
-        <v>915260563</v>
+        <v>878318681</v>
       </c>
       <c r="AW98" s="13" t="n">
-        <v>878318681</v>
+        <v>933769481</v>
       </c>
       <c r="AX98" s="13" t="n">
-        <v>933769481</v>
+        <v>922773723</v>
       </c>
       <c r="AY98" s="13" t="n">
-        <v>922773723</v>
+        <v>924400735</v>
       </c>
       <c r="AZ98" s="13" t="n">
-        <v>924400735</v>
+        <v>1013743662</v>
       </c>
       <c r="BA98" s="13" t="n">
-        <v>1013743662</v>
+        <v>1079819178</v>
       </c>
       <c r="BB98" s="13" t="n">
-        <v>1079819178</v>
+        <v>1062902913</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14841,80 +14841,80 @@
       <c r="AC99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD99" s="16" t="s">
-        <v>58</v>
+      <c r="AD99" s="16" t="n">
+        <v>557807692</v>
       </c>
       <c r="AE99" s="16" t="n">
-        <v>557807692</v>
+        <v>533410256</v>
       </c>
       <c r="AF99" s="16" t="n">
-        <v>533410256</v>
+        <v>503359281</v>
       </c>
       <c r="AG99" s="16" t="n">
-        <v>503359281</v>
+        <v>502563953</v>
       </c>
       <c r="AH99" s="16" t="n">
-        <v>502563953</v>
+        <v>521775281</v>
       </c>
       <c r="AI99" s="16" t="n">
-        <v>521775281</v>
+        <v>553498182</v>
       </c>
       <c r="AJ99" s="16" t="n">
-        <v>553498182</v>
+        <v>553439791</v>
       </c>
       <c r="AK99" s="16" t="n">
-        <v>553439791</v>
+        <v>554925481</v>
       </c>
       <c r="AL99" s="16" t="n">
-        <v>554925481</v>
+        <v>601547074</v>
       </c>
       <c r="AM99" s="16" t="n">
-        <v>601547074</v>
+        <v>628701010</v>
       </c>
       <c r="AN99" s="16" t="n">
-        <v>628701010</v>
+        <v>632464286</v>
       </c>
       <c r="AO99" s="16" t="n">
-        <v>632464286</v>
+        <v>1003531646</v>
       </c>
       <c r="AP99" s="16" t="n">
-        <v>1003531646</v>
+        <v>700890756</v>
       </c>
       <c r="AQ99" s="16" t="n">
-        <v>700890756</v>
+        <v>670207254</v>
       </c>
       <c r="AR99" s="16" t="n">
-        <v>670207254</v>
+        <v>717743590</v>
       </c>
       <c r="AS99" s="16" t="n">
-        <v>717743590</v>
+        <v>717082474</v>
       </c>
       <c r="AT99" s="16" t="n">
-        <v>717082474</v>
+        <v>737029851</v>
       </c>
       <c r="AU99" s="16" t="n">
-        <v>737029851</v>
+        <v>737536145</v>
       </c>
       <c r="AV99" s="16" t="n">
-        <v>737536145</v>
+        <v>740735192</v>
       </c>
       <c r="AW99" s="16" t="n">
-        <v>740735192</v>
+        <v>768592920</v>
       </c>
       <c r="AX99" s="16" t="n">
-        <v>768592920</v>
+        <v>814378855</v>
       </c>
       <c r="AY99" s="16" t="n">
-        <v>814378855</v>
+        <v>876697051</v>
       </c>
       <c r="AZ99" s="16" t="n">
-        <v>876697051</v>
+        <v>913713881</v>
       </c>
       <c r="BA99" s="16" t="n">
-        <v>913713881</v>
+        <v>868940741</v>
       </c>
       <c r="BB99" s="16" t="n">
-        <v>868940741</v>
+        <v>902826389</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15000,80 +15000,80 @@
       <c r="AC100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD100" s="13" t="s">
-        <v>58</v>
+      <c r="AD100" s="13" t="n">
+        <v>469388060</v>
       </c>
       <c r="AE100" s="13" t="n">
-        <v>469388060</v>
+        <v>476917293</v>
       </c>
       <c r="AF100" s="13" t="n">
-        <v>476917293</v>
+        <v>444609091</v>
       </c>
       <c r="AG100" s="13" t="n">
-        <v>444609091</v>
+        <v>459209524</v>
       </c>
       <c r="AH100" s="13" t="n">
-        <v>459209524</v>
+        <v>473574468</v>
       </c>
       <c r="AI100" s="13" t="n">
-        <v>473574468</v>
+        <v>482474419</v>
       </c>
       <c r="AJ100" s="13" t="n">
-        <v>482474419</v>
+        <v>480255639</v>
       </c>
       <c r="AK100" s="13" t="n">
-        <v>480255639</v>
+        <v>488961240</v>
       </c>
       <c r="AL100" s="13" t="n">
-        <v>488961240</v>
+        <v>486748879</v>
       </c>
       <c r="AM100" s="13" t="n">
-        <v>486748879</v>
+        <v>482841270</v>
       </c>
       <c r="AN100" s="13" t="n">
-        <v>482841270</v>
+        <v>481417910</v>
       </c>
       <c r="AO100" s="13" t="n">
-        <v>481417910</v>
+        <v>498491803</v>
       </c>
       <c r="AP100" s="13" t="n">
-        <v>498491803</v>
+        <v>493192308</v>
       </c>
       <c r="AQ100" s="13" t="n">
-        <v>493192308</v>
+        <v>482794613</v>
       </c>
       <c r="AR100" s="13" t="n">
-        <v>482794613</v>
+        <v>485730769</v>
       </c>
       <c r="AS100" s="13" t="n">
-        <v>485730769</v>
+        <v>525468293</v>
       </c>
       <c r="AT100" s="13" t="n">
-        <v>525468293</v>
+        <v>762939394</v>
       </c>
       <c r="AU100" s="13" t="n">
-        <v>762939394</v>
+        <v>611932927</v>
       </c>
       <c r="AV100" s="13" t="n">
-        <v>611932927</v>
+        <v>622426667</v>
       </c>
       <c r="AW100" s="13" t="n">
-        <v>622426667</v>
+        <v>825390533</v>
       </c>
       <c r="AX100" s="13" t="n">
-        <v>825390533</v>
+        <v>729172589</v>
       </c>
       <c r="AY100" s="13" t="n">
-        <v>729172589</v>
+        <v>729340782</v>
       </c>
       <c r="AZ100" s="13" t="n">
-        <v>729340782</v>
+        <v>776786982</v>
       </c>
       <c r="BA100" s="13" t="n">
-        <v>776786982</v>
+        <v>952741071</v>
       </c>
       <c r="BB100" s="13" t="n">
-        <v>952741071</v>
+        <v>829273885</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15255,41 +15255,41 @@
       <c r="AP102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ102" s="13" t="s">
-        <v>58</v>
+      <c r="AQ102" s="13" t="n">
+        <v>732000000</v>
       </c>
       <c r="AR102" s="13" t="n">
-        <v>732000000</v>
-      </c>
-      <c r="AS102" s="13" t="n">
         <v>556500000</v>
       </c>
-      <c r="AT102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU102" s="13" t="n">
+      <c r="AS102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT102" s="13" t="n">
         <v>953000000</v>
       </c>
-      <c r="AV102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW102" s="13" t="n">
+      <c r="AU102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV102" s="13" t="n">
         <v>805909091</v>
       </c>
-      <c r="AX102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY102" s="13" t="n">
+      <c r="AW102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX102" s="13" t="n">
         <v>777710145</v>
       </c>
-      <c r="AZ102" s="13" t="s">
-        <v>58</v>
+      <c r="AY102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ102" s="13" t="n">
+        <v>727916667</v>
       </c>
       <c r="BA102" s="13" t="n">
-        <v>727916667</v>
-      </c>
-      <c r="BB102" s="13" t="n">
         <v>1059395349</v>
+      </c>
+      <c r="BB102" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15408,47 +15408,47 @@
       <c r="AN103" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO103" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP103" s="16" t="n">
+      <c r="AO103" s="16" t="n">
         <v>738000000</v>
       </c>
-      <c r="AQ103" s="16" t="s">
-        <v>58</v>
+      <c r="AP103" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ103" s="16" t="n">
+        <v>615625000</v>
       </c>
       <c r="AR103" s="16" t="n">
-        <v>615625000</v>
-      </c>
-      <c r="AS103" s="16" t="n">
         <v>598921875</v>
       </c>
-      <c r="AT103" s="16" t="s">
-        <v>58</v>
+      <c r="AS103" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT103" s="16" t="n">
+        <v>676708333</v>
       </c>
       <c r="AU103" s="16" t="n">
-        <v>676708333</v>
+        <v>700990991</v>
       </c>
       <c r="AV103" s="16" t="n">
-        <v>700990991</v>
+        <v>765000000</v>
       </c>
       <c r="AW103" s="16" t="n">
-        <v>765000000</v>
+        <v>753478261</v>
       </c>
       <c r="AX103" s="16" t="n">
-        <v>753478261</v>
+        <v>809753247</v>
       </c>
       <c r="AY103" s="16" t="n">
-        <v>809753247</v>
+        <v>800828571</v>
       </c>
       <c r="AZ103" s="16" t="n">
-        <v>800828571</v>
+        <v>815280702</v>
       </c>
       <c r="BA103" s="16" t="n">
-        <v>815280702</v>
-      </c>
-      <c r="BB103" s="16" t="n">
         <v>956145833</v>
+      </c>
+      <c r="BB103" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15585,20 +15585,20 @@
       <c r="AT104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV104" s="13" t="n">
+      <c r="AU104" s="13" t="n">
         <v>710044118</v>
       </c>
-      <c r="AW104" s="13" t="s">
-        <v>58</v>
+      <c r="AV104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW104" s="13" t="n">
+        <v>995692308</v>
       </c>
       <c r="AX104" s="13" t="n">
-        <v>995692308</v>
-      </c>
-      <c r="AY104" s="13" t="n">
         <v>909800000</v>
+      </c>
+      <c r="AY104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ104" s="13" t="s">
         <v>58</v>
@@ -15735,20 +15735,20 @@
       <c r="AQ105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR105" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS105" s="16" t="n">
+      <c r="AR105" s="16" t="n">
         <v>656296296</v>
       </c>
+      <c r="AS105" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AT105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU105" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV105" s="16" t="n">
+      <c r="AU105" s="16" t="n">
         <v>662142857</v>
+      </c>
+      <c r="AV105" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AW105" s="16" t="s">
         <v>58</v>
@@ -15885,38 +15885,38 @@
       <c r="AN106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP106" s="13" t="n">
+      <c r="AO106" s="13" t="n">
         <v>611071429</v>
       </c>
-      <c r="AQ106" s="13" t="s">
-        <v>58</v>
+      <c r="AP106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ106" s="13" t="n">
+        <v>605000000</v>
       </c>
       <c r="AR106" s="13" t="n">
-        <v>605000000</v>
-      </c>
-      <c r="AS106" s="13" t="n">
         <v>609594595</v>
       </c>
+      <c r="AS106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV106" s="13" t="n">
+      <c r="AU106" s="13" t="n">
         <v>624178571</v>
       </c>
-      <c r="AW106" s="13" t="s">
-        <v>58</v>
+      <c r="AV106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW106" s="13" t="n">
+        <v>842000000</v>
       </c>
       <c r="AX106" s="13" t="n">
-        <v>842000000</v>
-      </c>
-      <c r="AY106" s="13" t="n">
         <v>646666667</v>
+      </c>
+      <c r="AY106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ106" s="13" t="s">
         <v>58</v>
@@ -16101,17 +16101,17 @@
       <c r="AN108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP108" s="13" t="n">
-        <v>0</v>
+      <c r="AO108" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR108" s="13" t="s">
-        <v>58</v>
+      <c r="AR108" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS108" s="13" t="n">
         <v>0</v>
@@ -16131,17 +16131,17 @@
       <c r="AX108" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY108" s="13" t="n">
-        <v>0</v>
+      <c r="AY108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB108" s="13" t="n">
-        <v>0</v>
+      <c r="BA108" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
